--- a/Test-case-libmanagement.xlsx
+++ b/Test-case-libmanagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software_Testing\libmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pminh\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24940B49-F057-4B23-99F3-F3208A0D30C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{00303B18-5B1D-445F-AC14-D3B0E113EC9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ED547CB2-F8E9-45E4-B188-5F6F7FBFD5CB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -38,7 +38,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="562">
   <si>
     <t>TC16</t>
   </si>
@@ -2381,32 +2380,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. Nhập số    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [  tphcm     ]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Nhập đầy đủ các ô còn lại
-3. Nhấn lưu thông tin</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1. Nhập số </t>
     </r>
     <r>
@@ -5094,9 +5067,6 @@
     </r>
   </si>
   <si>
-    <t>Không thể xóa những sách đã cho mượn</t>
-  </si>
-  <si>
     <t>3. KIỂM TRA CHỨC NĂNG THÊM ĐỘC GIẢ</t>
   </si>
   <si>
@@ -5255,9 +5225,6 @@
       <t xml:space="preserve">
 3. Nhấn xóa độc giả</t>
     </r>
-  </si>
-  <si>
-    <t>Không xóa được các thành viên đã mượn sách</t>
   </si>
   <si>
     <t>Hiện thông báo bạn chưa trả sách nên không thể mượn thêm</t>
@@ -5647,6 +5614,32 @@
       <t xml:space="preserve">  ô "Giới tính"
 2. Nhập đầy đủ các ô còn lại
 3. Nhấn đăng ký</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Nhập</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [  tphcm     ]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Nhập đầy đủ các ô còn lại
+3. Nhấn lưu thông tin</t>
     </r>
   </si>
 </sst>
@@ -6403,7 +6396,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -6906,12 +6899,6 @@
     <xf numFmtId="14" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="29" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6936,15 +6923,51 @@
     <xf numFmtId="14" fontId="29" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="29" fillId="7" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="29" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -7017,141 +7040,114 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="31" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Functional Test Case v1.0" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal_Sheet1_Vanco_CR022a1_TestCase_v0.1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -7190,7 +7186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7584,11 +7580,11 @@
       <c r="B6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="211" t="s">
+      <c r="C6" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="211"/>
-      <c r="E6" s="212"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="222"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -7597,11 +7593,11 @@
       <c r="B7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="211" t="s">
+      <c r="C7" s="221" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="211"/>
-      <c r="E7" s="212"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="222"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -7814,8 +7810,8 @@
   </sheetPr>
   <dimension ref="A1:P233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="I146" sqref="I146"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -7834,9 +7830,9 @@
       <c r="A1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -7851,9 +7847,9 @@
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -7870,17 +7866,17 @@
       <c r="A3" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="221" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="211"/>
-      <c r="D3" s="212"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="222"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
-      <c r="J3" s="259"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="265"/>
       <c r="K3" s="9"/>
       <c r="L3" s="136"/>
       <c r="M3" s="136"/>
@@ -7891,17 +7887,17 @@
       <c r="A4" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="261"/>
-      <c r="D4" s="262"/>
+      <c r="C4" s="267"/>
+      <c r="D4" s="268"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
-      <c r="J4" s="259"/>
+      <c r="H4" s="265"/>
+      <c r="I4" s="265"/>
+      <c r="J4" s="265"/>
       <c r="K4" s="9"/>
       <c r="L4" s="136"/>
       <c r="M4" s="136"/>
@@ -7912,17 +7908,17 @@
       <c r="A5" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="255" t="s">
+      <c r="B5" s="261" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="256"/>
-      <c r="D5" s="257"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="263"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="264"/>
       <c r="K5" s="80"/>
       <c r="L5" s="137"/>
       <c r="M5" s="137"/>
@@ -7935,7 +7931,7 @@
       </c>
       <c r="B6" s="92">
         <f>COUNTIF(I12:I195,"Pass")</f>
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>48</v>
@@ -7947,9 +7943,9 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="259"/>
-      <c r="I6" s="259"/>
-      <c r="J6" s="259"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
       <c r="K6" s="9"/>
       <c r="L6" s="136"/>
       <c r="M6" s="136"/>
@@ -7962,7 +7958,7 @@
       </c>
       <c r="B7" s="93">
         <f>COUNTIF(I12:I195,"Fail")</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>37</v>
@@ -7974,9 +7970,9 @@
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="259"/>
-      <c r="I7" s="259"/>
-      <c r="J7" s="259"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="265"/>
       <c r="K7" s="9"/>
       <c r="L7" s="136"/>
       <c r="M7" s="136"/>
@@ -7984,10 +7980,10 @@
       <c r="O7" s="136"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="254"/>
-      <c r="B8" s="254"/>
-      <c r="C8" s="254"/>
-      <c r="D8" s="254"/>
+      <c r="A8" s="260"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -8001,28 +7997,28 @@
       <c r="O8" s="136"/>
     </row>
     <row r="9" spans="1:15" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="244" t="s">
+      <c r="A9" s="250" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="245" t="s">
+      <c r="B9" s="251" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="247" t="s">
+      <c r="D9" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="248"/>
-      <c r="F9" s="248"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="239" t="s">
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="255"/>
+      <c r="H9" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="243" t="s">
+      <c r="I9" s="249" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="243" t="s">
+      <c r="J9" s="249" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="82"/>
@@ -8032,16 +8028,16 @@
       <c r="O9" s="138"/>
     </row>
     <row r="10" spans="1:15" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="243"/>
-      <c r="B10" s="246"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="250"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="240"/>
-      <c r="I10" s="243"/>
-      <c r="J10" s="243"/>
+      <c r="A10" s="249"/>
+      <c r="B10" s="252"/>
+      <c r="C10" s="249"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="257"/>
+      <c r="H10" s="246"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="249"/>
       <c r="K10" s="70"/>
       <c r="L10" s="136"/>
       <c r="M10" s="136"/>
@@ -8049,27 +8045,27 @@
       <c r="O10" s="136"/>
     </row>
     <row r="11" spans="1:15" s="84" customFormat="1" ht="15">
-      <c r="A11" s="241"/>
-      <c r="B11" s="241"/>
-      <c r="C11" s="241"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="241"/>
-      <c r="G11" s="241"/>
-      <c r="H11" s="241"/>
-      <c r="I11" s="241"/>
-      <c r="J11" s="242"/>
+      <c r="A11" s="247"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
+      <c r="G11" s="247"/>
+      <c r="H11" s="247"/>
+      <c r="I11" s="247"/>
+      <c r="J11" s="248"/>
       <c r="L11" s="139"/>
       <c r="M11" s="139"/>
       <c r="N11" s="139"/>
       <c r="O11" s="134"/>
     </row>
     <row r="12" spans="1:15" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A12" s="223" t="s">
-        <v>402</v>
-      </c>
-      <c r="B12" s="224"/>
-      <c r="C12" s="224"/>
+      <c r="A12" s="233" t="s">
+        <v>401</v>
+      </c>
+      <c r="B12" s="234"/>
+      <c r="C12" s="234"/>
       <c r="D12" s="105"/>
       <c r="E12" s="105"/>
       <c r="F12" s="105"/>
@@ -8091,13 +8087,13 @@
         <v>86</v>
       </c>
       <c r="C13" s="149" t="s">
-        <v>501</v>
-      </c>
-      <c r="D13" s="219" t="s">
+        <v>500</v>
+      </c>
+      <c r="D13" s="229" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="219"/>
-      <c r="F13" s="219"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="229"/>
       <c r="G13" s="149"/>
       <c r="H13" s="171">
         <v>44177</v>
@@ -8119,13 +8115,13 @@
         <v>90</v>
       </c>
       <c r="C14" s="149" t="s">
-        <v>502</v>
-      </c>
-      <c r="D14" s="219" t="s">
+        <v>501</v>
+      </c>
+      <c r="D14" s="229" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="219"/>
-      <c r="F14" s="219"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="229"/>
       <c r="G14" s="149"/>
       <c r="H14" s="171">
         <v>44177</v>
@@ -8148,13 +8144,13 @@
         <v>91</v>
       </c>
       <c r="C15" s="149" t="s">
-        <v>503</v>
-      </c>
-      <c r="D15" s="236" t="s">
+        <v>502</v>
+      </c>
+      <c r="D15" s="271" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="236"/>
-      <c r="F15" s="236"/>
+      <c r="E15" s="271"/>
+      <c r="F15" s="271"/>
       <c r="G15" s="149"/>
       <c r="H15" s="171">
         <v>44177</v>
@@ -8177,13 +8173,13 @@
         <v>92</v>
       </c>
       <c r="C16" s="149" t="s">
-        <v>504</v>
-      </c>
-      <c r="D16" s="237" t="s">
+        <v>503</v>
+      </c>
+      <c r="D16" s="272" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="238"/>
-      <c r="F16" s="238"/>
+      <c r="E16" s="273"/>
+      <c r="F16" s="273"/>
       <c r="G16" s="149"/>
       <c r="H16" s="171">
         <v>44177</v>
@@ -8206,13 +8202,13 @@
         <v>93</v>
       </c>
       <c r="C17" s="149" t="s">
-        <v>505</v>
-      </c>
-      <c r="D17" s="219" t="s">
+        <v>504</v>
+      </c>
+      <c r="D17" s="229" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="229"/>
       <c r="G17" s="149"/>
       <c r="H17" s="171">
         <v>44177</v>
@@ -8234,13 +8230,13 @@
         <v>94</v>
       </c>
       <c r="C18" s="149" t="s">
-        <v>506</v>
-      </c>
-      <c r="D18" s="219" t="s">
+        <v>505</v>
+      </c>
+      <c r="D18" s="229" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="229"/>
       <c r="G18" s="149"/>
       <c r="H18" s="171">
         <v>44177</v>
@@ -8263,13 +8259,13 @@
         <v>97</v>
       </c>
       <c r="C19" s="149" t="s">
-        <v>507</v>
-      </c>
-      <c r="D19" s="219" t="s">
+        <v>506</v>
+      </c>
+      <c r="D19" s="229" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
+      <c r="E19" s="229"/>
+      <c r="F19" s="229"/>
       <c r="G19" s="149"/>
       <c r="H19" s="171">
         <v>44177</v>
@@ -8292,13 +8288,13 @@
         <v>99</v>
       </c>
       <c r="C20" s="149" t="s">
-        <v>508</v>
-      </c>
-      <c r="D20" s="219" t="s">
+        <v>507</v>
+      </c>
+      <c r="D20" s="229" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="219"/>
-      <c r="F20" s="219"/>
+      <c r="E20" s="229"/>
+      <c r="F20" s="229"/>
       <c r="G20" s="149"/>
       <c r="H20" s="171">
         <v>44177</v>
@@ -8314,11 +8310,11 @@
       <c r="O20" s="107"/>
     </row>
     <row r="21" spans="1:15" s="4" customFormat="1" ht="19.95" customHeight="1" outlineLevel="1">
-      <c r="A21" s="223" t="s">
-        <v>528</v>
-      </c>
-      <c r="B21" s="224"/>
-      <c r="C21" s="224"/>
+      <c r="A21" s="233" t="s">
+        <v>526</v>
+      </c>
+      <c r="B21" s="234"/>
+      <c r="C21" s="234"/>
       <c r="D21" s="109"/>
       <c r="E21" s="109"/>
       <c r="F21" s="109"/>
@@ -8342,11 +8338,11 @@
       <c r="C22" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="213" t="s">
+      <c r="D22" s="223" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="218"/>
-      <c r="F22" s="218"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="228"/>
       <c r="G22" s="86"/>
       <c r="H22" s="174">
         <v>44178</v>
@@ -8369,13 +8365,13 @@
         <v>110</v>
       </c>
       <c r="C23" s="151" t="s">
+        <v>508</v>
+      </c>
+      <c r="D23" s="223" t="s">
         <v>509</v>
       </c>
-      <c r="D23" s="213" t="s">
-        <v>510</v>
-      </c>
-      <c r="E23" s="218"/>
-      <c r="F23" s="218"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
       <c r="G23" s="86"/>
       <c r="H23" s="174">
         <v>44178</v>
@@ -8395,25 +8391,25 @@
         <v>54</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C24" s="151" t="s">
+        <v>528</v>
+      </c>
+      <c r="D24" s="229" t="s">
         <v>530</v>
       </c>
-      <c r="D24" s="219" t="s">
-        <v>532</v>
-      </c>
-      <c r="E24" s="219"/>
-      <c r="F24" s="219"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="229"/>
       <c r="G24" s="86"/>
       <c r="H24" s="174">
         <v>44178</v>
       </c>
-      <c r="I24" s="271" t="s">
+      <c r="I24" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="177" t="s">
-        <v>540</v>
+      <c r="J24" s="217" t="s">
+        <v>537</v>
       </c>
       <c r="K24" s="107"/>
       <c r="L24" s="107"/>
@@ -8429,13 +8425,13 @@
         <v>105</v>
       </c>
       <c r="C25" s="151" t="s">
-        <v>511</v>
-      </c>
-      <c r="D25" s="213" t="s">
+        <v>510</v>
+      </c>
+      <c r="D25" s="223" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="218"/>
-      <c r="F25" s="218"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
       <c r="G25" s="86"/>
       <c r="H25" s="174">
         <v>44178</v>
@@ -8458,13 +8454,13 @@
         <v>106</v>
       </c>
       <c r="C26" s="151" t="s">
-        <v>512</v>
-      </c>
-      <c r="D26" s="213" t="s">
+        <v>511</v>
+      </c>
+      <c r="D26" s="223" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
+      <c r="E26" s="223"/>
+      <c r="F26" s="223"/>
       <c r="G26" s="86"/>
       <c r="H26" s="174">
         <v>44178</v>
@@ -8487,22 +8483,22 @@
         <v>108</v>
       </c>
       <c r="C27" s="151" t="s">
-        <v>513</v>
-      </c>
-      <c r="D27" s="213" t="s">
+        <v>512</v>
+      </c>
+      <c r="D27" s="223" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="223"/>
       <c r="G27" s="86"/>
       <c r="H27" s="174">
         <v>44178</v>
       </c>
-      <c r="I27" s="271" t="s">
+      <c r="I27" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="177" t="s">
-        <v>540</v>
+      <c r="J27" s="217" t="s">
+        <v>537</v>
       </c>
       <c r="K27" s="107"/>
       <c r="L27" s="107"/>
@@ -8518,13 +8514,13 @@
         <v>111</v>
       </c>
       <c r="C28" s="151" t="s">
+        <v>513</v>
+      </c>
+      <c r="D28" s="223" t="s">
         <v>514</v>
       </c>
-      <c r="D28" s="213" t="s">
-        <v>515</v>
-      </c>
-      <c r="E28" s="213"/>
-      <c r="F28" s="213"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
       <c r="G28" s="86"/>
       <c r="H28" s="174">
         <v>44178</v>
@@ -8547,22 +8543,22 @@
         <v>112</v>
       </c>
       <c r="C29" s="151" t="s">
-        <v>516</v>
-      </c>
-      <c r="D29" s="213" t="s">
+        <v>515</v>
+      </c>
+      <c r="D29" s="223" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="213"/>
-      <c r="F29" s="213"/>
+      <c r="E29" s="223"/>
+      <c r="F29" s="223"/>
       <c r="G29" s="86"/>
       <c r="H29" s="174">
         <v>44178</v>
       </c>
-      <c r="I29" s="173" t="s">
+      <c r="I29" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="177" t="s">
-        <v>540</v>
+      <c r="J29" s="217" t="s">
+        <v>537</v>
       </c>
       <c r="K29" s="107"/>
       <c r="L29" s="107"/>
@@ -8578,13 +8574,13 @@
         <v>113</v>
       </c>
       <c r="C30" s="151" t="s">
-        <v>531</v>
-      </c>
-      <c r="D30" s="213" t="s">
+        <v>529</v>
+      </c>
+      <c r="D30" s="223" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="213"/>
-      <c r="F30" s="213"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="223"/>
       <c r="G30" s="86"/>
       <c r="H30" s="174">
         <v>44178</v>
@@ -8609,11 +8605,11 @@
       <c r="C31" s="151" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="213" t="s">
+      <c r="D31" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="213"/>
-      <c r="F31" s="213"/>
+      <c r="E31" s="223"/>
+      <c r="F31" s="223"/>
       <c r="G31" s="86"/>
       <c r="H31" s="174">
         <v>44178</v>
@@ -8629,11 +8625,11 @@
       <c r="O31" s="107"/>
     </row>
     <row r="32" spans="1:15" s="4" customFormat="1" ht="19.95" customHeight="1" outlineLevel="1">
-      <c r="A32" s="223" t="s">
-        <v>518</v>
-      </c>
-      <c r="B32" s="224"/>
-      <c r="C32" s="224"/>
+      <c r="A32" s="233" t="s">
+        <v>516</v>
+      </c>
+      <c r="B32" s="234"/>
+      <c r="C32" s="234"/>
       <c r="D32" s="109"/>
       <c r="E32" s="109"/>
       <c r="F32" s="109"/>
@@ -8657,13 +8653,13 @@
       <c r="C33" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="221" t="s">
+      <c r="D33" s="231" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="220"/>
-      <c r="F33" s="220"/>
+      <c r="E33" s="230"/>
+      <c r="F33" s="230"/>
       <c r="G33" s="85"/>
-      <c r="H33" s="201">
+      <c r="H33" s="199">
         <v>44178</v>
       </c>
       <c r="I33" s="173" t="s">
@@ -8686,19 +8682,21 @@
       <c r="C34" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="263" t="s">
+      <c r="D34" s="269" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="264"/>
-      <c r="F34" s="264"/>
+      <c r="E34" s="270"/>
+      <c r="F34" s="270"/>
       <c r="G34" s="85"/>
       <c r="H34" s="174">
         <v>44178</v>
       </c>
-      <c r="I34" s="271" t="s">
+      <c r="I34" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="177"/>
+      <c r="J34" s="217" t="s">
+        <v>537</v>
+      </c>
       <c r="K34" s="107"/>
       <c r="L34" s="107"/>
       <c r="M34" s="107"/>
@@ -8715,19 +8713,21 @@
       <c r="C35" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="219" t="s">
+      <c r="D35" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="219"/>
-      <c r="F35" s="219"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="229"/>
       <c r="G35" s="86"/>
       <c r="H35" s="174">
         <v>44178</v>
       </c>
-      <c r="I35" s="271" t="s">
+      <c r="I35" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="177"/>
+      <c r="J35" s="217" t="s">
+        <v>537</v>
+      </c>
       <c r="K35" s="107"/>
       <c r="L35" s="107"/>
       <c r="M35" s="107"/>
@@ -8739,24 +8739,26 @@
         <v>62</v>
       </c>
       <c r="B36" s="191" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C36" s="191" t="s">
-        <v>551</v>
-      </c>
-      <c r="D36" s="221" t="s">
+        <v>548</v>
+      </c>
+      <c r="D36" s="231" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="220"/>
-      <c r="F36" s="222"/>
+      <c r="E36" s="230"/>
+      <c r="F36" s="232"/>
       <c r="G36" s="86"/>
       <c r="H36" s="174">
         <v>44178</v>
       </c>
-      <c r="I36" s="271" t="s">
+      <c r="I36" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="177"/>
+      <c r="J36" s="217" t="s">
+        <v>537</v>
+      </c>
       <c r="K36" s="107"/>
       <c r="L36" s="107"/>
       <c r="M36" s="107"/>
@@ -8768,24 +8770,26 @@
         <v>65</v>
       </c>
       <c r="B37" s="191" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C37" s="191" t="s">
-        <v>547</v>
-      </c>
-      <c r="D37" s="221" t="s">
+        <v>544</v>
+      </c>
+      <c r="D37" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="220"/>
-      <c r="F37" s="222"/>
+      <c r="E37" s="230"/>
+      <c r="F37" s="232"/>
       <c r="G37" s="86"/>
       <c r="H37" s="174">
         <v>44178</v>
       </c>
-      <c r="I37" s="271" t="s">
+      <c r="I37" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="177"/>
+      <c r="J37" s="217" t="s">
+        <v>537</v>
+      </c>
       <c r="K37" s="107"/>
       <c r="L37" s="107"/>
       <c r="M37" s="107"/>
@@ -8797,21 +8801,21 @@
         <v>66</v>
       </c>
       <c r="B38" s="191" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C38" s="191" t="s">
-        <v>553</v>
-      </c>
-      <c r="D38" s="221" t="s">
+        <v>550</v>
+      </c>
+      <c r="D38" s="231" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="220"/>
-      <c r="F38" s="222"/>
+      <c r="E38" s="230"/>
+      <c r="F38" s="232"/>
       <c r="G38" s="86"/>
       <c r="H38" s="174">
         <v>44178</v>
       </c>
-      <c r="I38" s="271" t="s">
+      <c r="I38" s="209" t="s">
         <v>11</v>
       </c>
       <c r="J38" s="177"/>
@@ -8826,24 +8830,26 @@
         <v>67</v>
       </c>
       <c r="B39" s="191" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C39" s="191" t="s">
-        <v>555</v>
-      </c>
-      <c r="D39" s="221" t="s">
+        <v>552</v>
+      </c>
+      <c r="D39" s="231" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="220"/>
-      <c r="F39" s="222"/>
+      <c r="E39" s="230"/>
+      <c r="F39" s="232"/>
       <c r="G39" s="86"/>
       <c r="H39" s="174">
         <v>44178</v>
       </c>
-      <c r="I39" s="271" t="s">
+      <c r="I39" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="177"/>
+      <c r="J39" s="217" t="s">
+        <v>537</v>
+      </c>
       <c r="K39" s="107"/>
       <c r="L39" s="107"/>
       <c r="M39" s="107"/>
@@ -8855,24 +8861,26 @@
         <v>68</v>
       </c>
       <c r="B40" s="191" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C40" s="191" t="s">
-        <v>549</v>
-      </c>
-      <c r="D40" s="221" t="s">
+        <v>546</v>
+      </c>
+      <c r="D40" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="220"/>
-      <c r="F40" s="222"/>
+      <c r="E40" s="230"/>
+      <c r="F40" s="232"/>
       <c r="G40" s="86"/>
       <c r="H40" s="174">
         <v>44178</v>
       </c>
-      <c r="I40" s="271" t="s">
+      <c r="I40" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="177"/>
+      <c r="J40" s="217" t="s">
+        <v>537</v>
+      </c>
       <c r="K40" s="107"/>
       <c r="L40" s="107"/>
       <c r="M40" s="107"/>
@@ -8884,21 +8892,21 @@
         <v>69</v>
       </c>
       <c r="B41" s="191" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C41" s="191" t="s">
-        <v>553</v>
-      </c>
-      <c r="D41" s="221" t="s">
+        <v>550</v>
+      </c>
+      <c r="D41" s="231" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="220"/>
-      <c r="F41" s="222"/>
+      <c r="E41" s="230"/>
+      <c r="F41" s="232"/>
       <c r="G41" s="86"/>
       <c r="H41" s="174">
         <v>44178</v>
       </c>
-      <c r="I41" s="271" t="s">
+      <c r="I41" s="209" t="s">
         <v>11</v>
       </c>
       <c r="J41" s="177"/>
@@ -8909,8 +8917,8 @@
       <c r="O41" s="107"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="79.2" customHeight="1" outlineLevel="1">
-      <c r="A42" s="277" t="s">
-        <v>537</v>
+      <c r="A42" s="215" t="s">
+        <v>534</v>
       </c>
       <c r="B42" s="151" t="s">
         <v>121</v>
@@ -8918,11 +8926,11 @@
       <c r="C42" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="219" t="s">
+      <c r="D42" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="219"/>
-      <c r="F42" s="219"/>
+      <c r="E42" s="229"/>
+      <c r="F42" s="229"/>
       <c r="G42" s="86"/>
       <c r="H42" s="174">
         <v>44178</v>
@@ -8939,7 +8947,7 @@
     </row>
     <row r="43" spans="1:15" s="4" customFormat="1" ht="79.2" customHeight="1" outlineLevel="1">
       <c r="A43" s="112" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B43" s="151" t="s">
         <v>123</v>
@@ -8947,11 +8955,11 @@
       <c r="C43" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="219" t="s">
+      <c r="D43" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="219"/>
-      <c r="F43" s="219"/>
+      <c r="E43" s="229"/>
+      <c r="F43" s="229"/>
       <c r="G43" s="86"/>
       <c r="H43" s="174">
         <v>44178</v>
@@ -8976,11 +8984,11 @@
       <c r="C44" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="D44" s="219" t="s">
+      <c r="D44" s="229" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="219"/>
-      <c r="F44" s="219"/>
+      <c r="E44" s="229"/>
+      <c r="F44" s="229"/>
       <c r="G44" s="86"/>
       <c r="H44" s="174">
         <v>44178</v>
@@ -9005,11 +9013,11 @@
       <c r="C45" s="151" t="s">
         <v>224</v>
       </c>
-      <c r="D45" s="219" t="s">
+      <c r="D45" s="229" t="s">
         <v>189</v>
       </c>
-      <c r="E45" s="219"/>
-      <c r="F45" s="219"/>
+      <c r="E45" s="229"/>
+      <c r="F45" s="229"/>
       <c r="G45" s="86"/>
       <c r="H45" s="174">
         <v>44178</v>
@@ -9034,11 +9042,11 @@
       <c r="C46" s="151" t="s">
         <v>225</v>
       </c>
-      <c r="D46" s="219" t="s">
+      <c r="D46" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E46" s="219"/>
-      <c r="F46" s="219"/>
+      <c r="E46" s="229"/>
+      <c r="F46" s="229"/>
       <c r="G46" s="86"/>
       <c r="H46" s="174">
         <v>44178</v>
@@ -9063,11 +9071,11 @@
       <c r="C47" s="151" t="s">
         <v>226</v>
       </c>
-      <c r="D47" s="219" t="s">
+      <c r="D47" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E47" s="219"/>
-      <c r="F47" s="219"/>
+      <c r="E47" s="229"/>
+      <c r="F47" s="229"/>
       <c r="G47" s="86"/>
       <c r="H47" s="174">
         <v>44178</v>
@@ -9092,11 +9100,11 @@
       <c r="C48" s="151" t="s">
         <v>228</v>
       </c>
-      <c r="D48" s="219" t="s">
+      <c r="D48" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="219"/>
-      <c r="F48" s="219"/>
+      <c r="E48" s="229"/>
+      <c r="F48" s="229"/>
       <c r="G48" s="86"/>
       <c r="H48" s="174">
         <v>44178</v>
@@ -9121,11 +9129,11 @@
       <c r="C49" s="151" t="s">
         <v>227</v>
       </c>
-      <c r="D49" s="219" t="s">
+      <c r="D49" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E49" s="219"/>
-      <c r="F49" s="219"/>
+      <c r="E49" s="229"/>
+      <c r="F49" s="229"/>
       <c r="G49" s="86"/>
       <c r="H49" s="174">
         <v>44178</v>
@@ -9150,11 +9158,11 @@
       <c r="C50" s="151" t="s">
         <v>229</v>
       </c>
-      <c r="D50" s="219" t="s">
+      <c r="D50" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E50" s="219"/>
-      <c r="F50" s="219"/>
+      <c r="E50" s="229"/>
+      <c r="F50" s="229"/>
       <c r="G50" s="86"/>
       <c r="H50" s="174">
         <v>44178</v>
@@ -9179,11 +9187,11 @@
       <c r="C51" s="151" t="s">
         <v>230</v>
       </c>
-      <c r="D51" s="219" t="s">
+      <c r="D51" s="229" t="s">
         <v>189</v>
       </c>
-      <c r="E51" s="219"/>
-      <c r="F51" s="219"/>
+      <c r="E51" s="229"/>
+      <c r="F51" s="229"/>
       <c r="G51" s="86"/>
       <c r="H51" s="174">
         <v>44178</v>
@@ -9208,11 +9216,11 @@
       <c r="C52" s="151" t="s">
         <v>231</v>
       </c>
-      <c r="D52" s="219" t="s">
+      <c r="D52" s="229" t="s">
         <v>189</v>
       </c>
-      <c r="E52" s="219"/>
-      <c r="F52" s="219"/>
+      <c r="E52" s="229"/>
+      <c r="F52" s="229"/>
       <c r="G52" s="86"/>
       <c r="H52" s="174">
         <v>44178</v>
@@ -9237,11 +9245,11 @@
       <c r="C53" s="151" t="s">
         <v>215</v>
       </c>
-      <c r="D53" s="219" t="s">
+      <c r="D53" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E53" s="219"/>
-      <c r="F53" s="219"/>
+      <c r="E53" s="229"/>
+      <c r="F53" s="229"/>
       <c r="G53" s="86"/>
       <c r="H53" s="174">
         <v>44178</v>
@@ -9266,11 +9274,11 @@
       <c r="C54" s="151" t="s">
         <v>217</v>
       </c>
-      <c r="D54" s="219" t="s">
+      <c r="D54" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E54" s="219"/>
-      <c r="F54" s="219"/>
+      <c r="E54" s="229"/>
+      <c r="F54" s="229"/>
       <c r="G54" s="86"/>
       <c r="H54" s="174">
         <v>44178</v>
@@ -9295,11 +9303,11 @@
       <c r="C55" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="D55" s="219" t="s">
+      <c r="D55" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E55" s="219"/>
-      <c r="F55" s="219"/>
+      <c r="E55" s="229"/>
+      <c r="F55" s="229"/>
       <c r="G55" s="86"/>
       <c r="H55" s="174">
         <v>44178</v>
@@ -9324,11 +9332,11 @@
       <c r="C56" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="219" t="s">
+      <c r="D56" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="E56" s="219"/>
-      <c r="F56" s="219"/>
+      <c r="E56" s="229"/>
+      <c r="F56" s="229"/>
       <c r="G56" s="86"/>
       <c r="H56" s="174">
         <v>44178</v>
@@ -9353,11 +9361,11 @@
       <c r="C57" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="219" t="s">
+      <c r="D57" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="E57" s="219"/>
-      <c r="F57" s="219"/>
+      <c r="E57" s="229"/>
+      <c r="F57" s="229"/>
       <c r="G57" s="86"/>
       <c r="H57" s="174">
         <v>44178</v>
@@ -9382,11 +9390,11 @@
       <c r="C58" s="151" t="s">
         <v>234</v>
       </c>
-      <c r="D58" s="219" t="s">
+      <c r="D58" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="E58" s="219"/>
-      <c r="F58" s="219"/>
+      <c r="E58" s="229"/>
+      <c r="F58" s="229"/>
       <c r="G58" s="86"/>
       <c r="H58" s="174">
         <v>44178</v>
@@ -9405,25 +9413,27 @@
       <c r="A59" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="B59" s="205" t="s">
+      <c r="B59" s="203" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="205" t="s">
-        <v>563</v>
-      </c>
-      <c r="D59" s="235" t="s">
+      <c r="C59" s="203" t="s">
+        <v>560</v>
+      </c>
+      <c r="D59" s="279" t="s">
         <v>132</v>
       </c>
-      <c r="E59" s="235"/>
-      <c r="F59" s="235"/>
-      <c r="G59" s="206"/>
-      <c r="H59" s="207">
+      <c r="E59" s="279"/>
+      <c r="F59" s="279"/>
+      <c r="G59" s="204"/>
+      <c r="H59" s="205">
         <v>44178</v>
       </c>
-      <c r="I59" s="271" t="s">
+      <c r="I59" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="208"/>
+      <c r="J59" s="217" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="60" spans="1:15" s="4" customFormat="1" ht="79.2" customHeight="1" outlineLevel="1">
       <c r="A60" s="112" t="s">
@@ -9435,16 +9445,16 @@
       <c r="C60" s="151" t="s">
         <v>233</v>
       </c>
-      <c r="D60" s="219" t="s">
+      <c r="D60" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="E60" s="219"/>
-      <c r="F60" s="219"/>
+      <c r="E60" s="229"/>
+      <c r="F60" s="229"/>
       <c r="G60" s="86"/>
       <c r="H60" s="174">
         <v>44178</v>
       </c>
-      <c r="I60" s="271" t="s">
+      <c r="I60" s="209" t="s">
         <v>11</v>
       </c>
       <c r="J60" s="177"/>
@@ -9462,21 +9472,23 @@
         <v>131</v>
       </c>
       <c r="C61" s="151" t="s">
-        <v>401</v>
-      </c>
-      <c r="D61" s="219" t="s">
+        <v>400</v>
+      </c>
+      <c r="D61" s="229" t="s">
         <v>132</v>
       </c>
-      <c r="E61" s="219"/>
-      <c r="F61" s="219"/>
+      <c r="E61" s="229"/>
+      <c r="F61" s="229"/>
       <c r="G61" s="86"/>
       <c r="H61" s="174">
         <v>44178</v>
       </c>
-      <c r="I61" s="271" t="s">
+      <c r="I61" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="J61" s="177"/>
+      <c r="J61" s="217" t="s">
+        <v>537</v>
+      </c>
       <c r="K61" s="107"/>
       <c r="L61" s="107"/>
       <c r="M61" s="107"/>
@@ -9493,19 +9505,21 @@
       <c r="C62" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="D62" s="219" t="s">
+      <c r="D62" s="229" t="s">
         <v>132</v>
       </c>
-      <c r="E62" s="219"/>
-      <c r="F62" s="219"/>
+      <c r="E62" s="229"/>
+      <c r="F62" s="229"/>
       <c r="G62" s="86"/>
       <c r="H62" s="174">
         <v>44178</v>
       </c>
-      <c r="I62" s="271" t="s">
+      <c r="I62" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="J62" s="177"/>
+      <c r="J62" s="217" t="s">
+        <v>537</v>
+      </c>
       <c r="K62" s="107"/>
       <c r="L62" s="107"/>
       <c r="M62" s="107"/>
@@ -9513,16 +9527,16 @@
       <c r="O62" s="107"/>
     </row>
     <row r="63" spans="1:15" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A63" s="223" t="s">
-        <v>400</v>
-      </c>
-      <c r="B63" s="224"/>
-      <c r="C63" s="224"/>
+      <c r="A63" s="233" t="s">
+        <v>399</v>
+      </c>
+      <c r="B63" s="234"/>
+      <c r="C63" s="234"/>
       <c r="D63" s="105"/>
       <c r="E63" s="105"/>
       <c r="F63" s="105"/>
       <c r="G63" s="105"/>
-      <c r="H63" s="202"/>
+      <c r="H63" s="200"/>
       <c r="I63" s="150"/>
       <c r="J63" s="153"/>
       <c r="K63" s="107"/>
@@ -9541,11 +9555,11 @@
       <c r="C64" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="D64" s="226" t="s">
+      <c r="D64" s="236" t="s">
         <v>119</v>
       </c>
-      <c r="E64" s="226"/>
-      <c r="F64" s="226"/>
+      <c r="E64" s="236"/>
+      <c r="F64" s="236"/>
       <c r="G64" s="110"/>
       <c r="H64" s="176">
         <v>44178</v>
@@ -9553,7 +9567,7 @@
       <c r="I64" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="J64" s="178"/>
+      <c r="J64" s="175"/>
     </row>
     <row r="65" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A65" s="110" t="s">
@@ -9565,19 +9579,21 @@
       <c r="C65" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="D65" s="227" t="s">
+      <c r="D65" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="228"/>
-      <c r="F65" s="229"/>
+      <c r="E65" s="238"/>
+      <c r="F65" s="239"/>
       <c r="G65" s="110"/>
       <c r="H65" s="176">
         <v>44178</v>
       </c>
-      <c r="I65" s="272" t="s">
+      <c r="I65" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J65" s="178"/>
+      <c r="J65" s="210" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="66" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A66" s="110" t="s">
@@ -9589,19 +9605,21 @@
       <c r="C66" s="110" t="s">
         <v>252</v>
       </c>
-      <c r="D66" s="227" t="s">
+      <c r="D66" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="228"/>
-      <c r="F66" s="229"/>
+      <c r="E66" s="238"/>
+      <c r="F66" s="239"/>
       <c r="G66" s="110"/>
       <c r="H66" s="176">
         <v>44178</v>
       </c>
-      <c r="I66" s="272" t="s">
+      <c r="I66" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J66" s="178"/>
+      <c r="J66" s="210" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="67" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A67" s="110" t="s">
@@ -9613,19 +9631,21 @@
       <c r="C67" s="110" t="s">
         <v>253</v>
       </c>
-      <c r="D67" s="227" t="s">
+      <c r="D67" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="228"/>
-      <c r="F67" s="229"/>
+      <c r="E67" s="238"/>
+      <c r="F67" s="239"/>
       <c r="G67" s="110"/>
       <c r="H67" s="176">
         <v>44178</v>
       </c>
-      <c r="I67" s="272" t="s">
+      <c r="I67" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J67" s="178"/>
+      <c r="J67" s="175" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="68" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A68" s="110" t="s">
@@ -9637,19 +9657,21 @@
       <c r="C68" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="D68" s="227" t="s">
+      <c r="D68" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="E68" s="228"/>
-      <c r="F68" s="229"/>
+      <c r="E68" s="238"/>
+      <c r="F68" s="239"/>
       <c r="G68" s="110"/>
       <c r="H68" s="176">
         <v>44178</v>
       </c>
-      <c r="I68" s="272" t="s">
+      <c r="I68" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J68" s="178"/>
+      <c r="J68" s="210" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="69" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A69" s="110" t="s">
@@ -9661,19 +9683,21 @@
       <c r="C69" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="D69" s="227" t="s">
+      <c r="D69" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="228"/>
-      <c r="F69" s="229"/>
+      <c r="E69" s="238"/>
+      <c r="F69" s="239"/>
       <c r="G69" s="110"/>
       <c r="H69" s="176">
         <v>44178</v>
       </c>
-      <c r="I69" s="272" t="s">
+      <c r="I69" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J69" s="178"/>
+      <c r="J69" s="210" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="70" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A70" s="110" t="s">
@@ -9685,19 +9709,21 @@
       <c r="C70" s="110" t="s">
         <v>291</v>
       </c>
-      <c r="D70" s="227" t="s">
+      <c r="D70" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E70" s="228"/>
-      <c r="F70" s="229"/>
+      <c r="E70" s="238"/>
+      <c r="F70" s="239"/>
       <c r="G70" s="110"/>
       <c r="H70" s="176">
         <v>44178</v>
       </c>
-      <c r="I70" s="272" t="s">
+      <c r="I70" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J70" s="178"/>
+      <c r="J70" s="175" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="71" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A71" s="110" t="s">
@@ -9709,19 +9735,21 @@
       <c r="C71" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="D71" s="227" t="s">
+      <c r="D71" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="228"/>
-      <c r="F71" s="229"/>
+      <c r="E71" s="238"/>
+      <c r="F71" s="239"/>
       <c r="G71" s="110"/>
       <c r="H71" s="176">
         <v>44178</v>
       </c>
-      <c r="I71" s="272" t="s">
+      <c r="I71" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J71" s="178"/>
+      <c r="J71" s="175" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="72" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A72" s="110" t="s">
@@ -9733,19 +9761,21 @@
       <c r="C72" s="110" t="s">
         <v>254</v>
       </c>
-      <c r="D72" s="227" t="s">
+      <c r="D72" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="228"/>
-      <c r="F72" s="229"/>
+      <c r="E72" s="238"/>
+      <c r="F72" s="239"/>
       <c r="G72" s="110"/>
       <c r="H72" s="176">
         <v>44178</v>
       </c>
-      <c r="I72" s="272" t="s">
+      <c r="I72" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="178"/>
+      <c r="J72" s="210" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="73" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A73" s="110" t="s">
@@ -9757,19 +9787,21 @@
       <c r="C73" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="D73" s="227" t="s">
+      <c r="D73" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E73" s="228"/>
-      <c r="F73" s="229"/>
+      <c r="E73" s="238"/>
+      <c r="F73" s="239"/>
       <c r="G73" s="110"/>
       <c r="H73" s="176">
         <v>44178</v>
       </c>
-      <c r="I73" s="272" t="s">
+      <c r="I73" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J73" s="178"/>
+      <c r="J73" s="175" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="74" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A74" s="110" t="s">
@@ -9781,19 +9813,21 @@
       <c r="C74" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="D74" s="227" t="s">
+      <c r="D74" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="E74" s="228"/>
-      <c r="F74" s="229"/>
+      <c r="E74" s="238"/>
+      <c r="F74" s="239"/>
       <c r="G74" s="110"/>
       <c r="H74" s="176">
         <v>44178</v>
       </c>
-      <c r="I74" s="272" t="s">
+      <c r="I74" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J74" s="178"/>
+      <c r="J74" s="210" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="75" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A75" s="110" t="s">
@@ -9805,11 +9839,11 @@
       <c r="C75" s="110" t="s">
         <v>256</v>
       </c>
-      <c r="D75" s="227" t="s">
+      <c r="D75" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="E75" s="228"/>
-      <c r="F75" s="229"/>
+      <c r="E75" s="238"/>
+      <c r="F75" s="239"/>
       <c r="G75" s="110"/>
       <c r="H75" s="176">
         <v>44178</v>
@@ -9829,11 +9863,11 @@
       <c r="C76" s="110" t="s">
         <v>257</v>
       </c>
-      <c r="D76" s="227" t="s">
+      <c r="D76" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E76" s="228"/>
-      <c r="F76" s="229"/>
+      <c r="E76" s="238"/>
+      <c r="F76" s="239"/>
       <c r="G76" s="110"/>
       <c r="H76" s="176">
         <v>44178</v>
@@ -9853,11 +9887,11 @@
       <c r="C77" s="110" t="s">
         <v>258</v>
       </c>
-      <c r="D77" s="227" t="s">
+      <c r="D77" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E77" s="228"/>
-      <c r="F77" s="229"/>
+      <c r="E77" s="238"/>
+      <c r="F77" s="239"/>
       <c r="G77" s="110"/>
       <c r="H77" s="176">
         <v>44178</v>
@@ -9877,19 +9911,21 @@
       <c r="C78" s="110" t="s">
         <v>259</v>
       </c>
-      <c r="D78" s="227" t="s">
+      <c r="D78" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E78" s="228"/>
-      <c r="F78" s="229"/>
+      <c r="E78" s="238"/>
+      <c r="F78" s="239"/>
       <c r="G78" s="110"/>
       <c r="H78" s="176">
         <v>44178</v>
       </c>
-      <c r="I78" s="272" t="s">
+      <c r="I78" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J78" s="178"/>
+      <c r="J78" s="210" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="79" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A79" s="110" t="s">
@@ -9901,19 +9937,21 @@
       <c r="C79" s="110" t="s">
         <v>297</v>
       </c>
-      <c r="D79" s="227" t="s">
+      <c r="D79" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="E79" s="228"/>
-      <c r="F79" s="229"/>
+      <c r="E79" s="238"/>
+      <c r="F79" s="239"/>
       <c r="G79" s="110"/>
       <c r="H79" s="176">
         <v>44178</v>
       </c>
-      <c r="I79" s="272" t="s">
+      <c r="I79" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J79" s="178"/>
+      <c r="J79" s="210" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="80" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A80" s="110" t="s">
@@ -9923,21 +9961,23 @@
         <v>182</v>
       </c>
       <c r="C80" s="110" t="s">
-        <v>533</v>
-      </c>
-      <c r="D80" s="227" t="s">
+        <v>531</v>
+      </c>
+      <c r="D80" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="E80" s="228"/>
-      <c r="F80" s="229"/>
+      <c r="E80" s="238"/>
+      <c r="F80" s="239"/>
       <c r="G80" s="110"/>
       <c r="H80" s="176">
         <v>44178</v>
       </c>
-      <c r="I80" s="272" t="s">
+      <c r="I80" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J80" s="178"/>
+      <c r="J80" s="210" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="81" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A81" s="110" t="s">
@@ -9949,19 +9989,21 @@
       <c r="C81" s="110" t="s">
         <v>260</v>
       </c>
-      <c r="D81" s="227" t="s">
+      <c r="D81" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E81" s="228"/>
-      <c r="F81" s="229"/>
+      <c r="E81" s="238"/>
+      <c r="F81" s="239"/>
       <c r="G81" s="110"/>
       <c r="H81" s="176">
         <v>44178</v>
       </c>
-      <c r="I81" s="272" t="s">
+      <c r="I81" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J81" s="178"/>
+      <c r="J81" s="175" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="82" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A82" s="110" t="s">
@@ -9973,11 +10015,11 @@
       <c r="C82" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="D82" s="227" t="s">
+      <c r="D82" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="E82" s="228"/>
-      <c r="F82" s="229"/>
+      <c r="E82" s="238"/>
+      <c r="F82" s="239"/>
       <c r="G82" s="110"/>
       <c r="H82" s="176">
         <v>44178</v>
@@ -9997,11 +10039,11 @@
       <c r="C83" s="110" t="s">
         <v>261</v>
       </c>
-      <c r="D83" s="227" t="s">
+      <c r="D83" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="228"/>
-      <c r="F83" s="229"/>
+      <c r="E83" s="238"/>
+      <c r="F83" s="239"/>
       <c r="G83" s="110"/>
       <c r="H83" s="176">
         <v>44178</v>
@@ -10021,11 +10063,11 @@
       <c r="C84" s="110" t="s">
         <v>262</v>
       </c>
-      <c r="D84" s="227" t="s">
+      <c r="D84" s="237" t="s">
         <v>189</v>
       </c>
-      <c r="E84" s="228"/>
-      <c r="F84" s="229"/>
+      <c r="E84" s="238"/>
+      <c r="F84" s="239"/>
       <c r="G84" s="110"/>
       <c r="H84" s="176">
         <v>44178</v>
@@ -10045,11 +10087,11 @@
       <c r="C85" s="110" t="s">
         <v>263</v>
       </c>
-      <c r="D85" s="227" t="s">
+      <c r="D85" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E85" s="228"/>
-      <c r="F85" s="229"/>
+      <c r="E85" s="238"/>
+      <c r="F85" s="239"/>
       <c r="G85" s="110"/>
       <c r="H85" s="176">
         <v>44178</v>
@@ -10069,11 +10111,11 @@
       <c r="C86" s="110" t="s">
         <v>264</v>
       </c>
-      <c r="D86" s="227" t="s">
+      <c r="D86" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E86" s="228"/>
-      <c r="F86" s="229"/>
+      <c r="E86" s="238"/>
+      <c r="F86" s="239"/>
       <c r="G86" s="110"/>
       <c r="H86" s="176">
         <v>44178</v>
@@ -10093,11 +10135,11 @@
       <c r="C87" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="227" t="s">
+      <c r="D87" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E87" s="228"/>
-      <c r="F87" s="229"/>
+      <c r="E87" s="238"/>
+      <c r="F87" s="239"/>
       <c r="G87" s="110"/>
       <c r="H87" s="176">
         <v>44178</v>
@@ -10117,11 +10159,11 @@
       <c r="C88" s="110" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="227" t="s">
+      <c r="D88" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E88" s="228"/>
-      <c r="F88" s="229"/>
+      <c r="E88" s="238"/>
+      <c r="F88" s="239"/>
       <c r="G88" s="110"/>
       <c r="H88" s="176">
         <v>44178</v>
@@ -10141,11 +10183,11 @@
       <c r="C89" s="110" t="s">
         <v>267</v>
       </c>
-      <c r="D89" s="227" t="s">
+      <c r="D89" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E89" s="228"/>
-      <c r="F89" s="229"/>
+      <c r="E89" s="238"/>
+      <c r="F89" s="239"/>
       <c r="G89" s="110"/>
       <c r="H89" s="176">
         <v>44178</v>
@@ -10165,11 +10207,11 @@
       <c r="C90" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="227" t="s">
+      <c r="D90" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E90" s="228"/>
-      <c r="F90" s="229"/>
+      <c r="E90" s="238"/>
+      <c r="F90" s="239"/>
       <c r="G90" s="110"/>
       <c r="H90" s="176">
         <v>44178</v>
@@ -10189,11 +10231,11 @@
       <c r="C91" s="110" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="227" t="s">
+      <c r="D91" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E91" s="228"/>
-      <c r="F91" s="229"/>
+      <c r="E91" s="238"/>
+      <c r="F91" s="239"/>
       <c r="G91" s="110"/>
       <c r="H91" s="176">
         <v>44178</v>
@@ -10213,11 +10255,11 @@
       <c r="C92" s="110" t="s">
         <v>270</v>
       </c>
-      <c r="D92" s="227" t="s">
+      <c r="D92" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E92" s="228"/>
-      <c r="F92" s="229"/>
+      <c r="E92" s="238"/>
+      <c r="F92" s="239"/>
       <c r="G92" s="110"/>
       <c r="H92" s="176">
         <v>44178</v>
@@ -10237,11 +10279,11 @@
       <c r="C93" s="110" t="s">
         <v>271</v>
       </c>
-      <c r="D93" s="227" t="s">
+      <c r="D93" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E93" s="228"/>
-      <c r="F93" s="229"/>
+      <c r="E93" s="238"/>
+      <c r="F93" s="239"/>
       <c r="G93" s="110"/>
       <c r="H93" s="176">
         <v>44178</v>
@@ -10261,11 +10303,11 @@
       <c r="C94" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="D94" s="227" t="s">
+      <c r="D94" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E94" s="228"/>
-      <c r="F94" s="229"/>
+      <c r="E94" s="238"/>
+      <c r="F94" s="239"/>
       <c r="G94" s="110"/>
       <c r="H94" s="176">
         <v>44178</v>
@@ -10285,23 +10327,25 @@
       <c r="C95" s="110" t="s">
         <v>274</v>
       </c>
-      <c r="D95" s="227" t="s">
+      <c r="D95" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="E95" s="228"/>
-      <c r="F95" s="229"/>
+      <c r="E95" s="238"/>
+      <c r="F95" s="239"/>
       <c r="G95" s="110"/>
       <c r="H95" s="176">
         <v>44178</v>
       </c>
-      <c r="I95" s="272" t="s">
+      <c r="I95" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J95" s="178"/>
+      <c r="J95" s="175" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="96" spans="1:10" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A96" s="110" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B96" s="110" t="s">
         <v>275</v>
@@ -10309,23 +10353,25 @@
       <c r="C96" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="D96" s="227" t="s">
+      <c r="D96" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E96" s="228"/>
-      <c r="F96" s="229"/>
+      <c r="E96" s="238"/>
+      <c r="F96" s="239"/>
       <c r="G96" s="110"/>
       <c r="H96" s="176">
         <v>44178</v>
       </c>
-      <c r="I96" s="272" t="s">
+      <c r="I96" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J96" s="178"/>
+      <c r="J96" s="175" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="97" spans="1:16" s="107" customFormat="1" ht="79.2" customHeight="1">
       <c r="A97" s="110" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B97" s="110" t="s">
         <v>277</v>
@@ -10333,29 +10379,31 @@
       <c r="C97" s="110" t="s">
         <v>278</v>
       </c>
-      <c r="D97" s="227" t="s">
+      <c r="D97" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="E97" s="228"/>
-      <c r="F97" s="229"/>
+      <c r="E97" s="238"/>
+      <c r="F97" s="239"/>
       <c r="G97" s="110"/>
       <c r="H97" s="176">
         <v>44178</v>
       </c>
-      <c r="I97" s="272" t="s">
+      <c r="I97" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J97" s="178"/>
+      <c r="J97" s="210" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="98" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1" outlineLevel="1">
-      <c r="A98" s="223" t="s">
-        <v>399</v>
-      </c>
-      <c r="B98" s="224"/>
-      <c r="C98" s="230"/>
-      <c r="D98" s="223"/>
-      <c r="E98" s="224"/>
-      <c r="F98" s="230"/>
+      <c r="A98" s="233" t="s">
+        <v>398</v>
+      </c>
+      <c r="B98" s="234"/>
+      <c r="C98" s="240"/>
+      <c r="D98" s="233"/>
+      <c r="E98" s="234"/>
+      <c r="F98" s="240"/>
       <c r="G98" s="123"/>
       <c r="H98" s="179"/>
       <c r="I98" s="179"/>
@@ -10368,27 +10416,29 @@
     </row>
     <row r="99" spans="1:16" s="118" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A99" s="143" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B99" s="143" t="s">
+        <v>324</v>
+      </c>
+      <c r="C99" s="143" t="s">
         <v>325</v>
       </c>
-      <c r="C99" s="143" t="s">
+      <c r="D99" s="276" t="s">
         <v>326</v>
       </c>
-      <c r="D99" s="267" t="s">
-        <v>327</v>
-      </c>
-      <c r="E99" s="268"/>
-      <c r="F99" s="269"/>
+      <c r="E99" s="277"/>
+      <c r="F99" s="278"/>
       <c r="G99" s="108"/>
       <c r="H99" s="176">
         <v>44178</v>
       </c>
-      <c r="I99" s="272" t="s">
+      <c r="I99" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J99" s="152"/>
+      <c r="J99" s="152" t="s">
+        <v>537</v>
+      </c>
       <c r="K99" s="121"/>
       <c r="L99" s="119"/>
       <c r="M99" s="119"/>
@@ -10398,19 +10448,19 @@
     </row>
     <row r="100" spans="1:16" s="119" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A100" s="143" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B100" s="143" t="s">
+        <v>328</v>
+      </c>
+      <c r="C100" s="143" t="s">
+        <v>332</v>
+      </c>
+      <c r="D100" s="243" t="s">
         <v>329</v>
       </c>
-      <c r="C100" s="143" t="s">
-        <v>333</v>
-      </c>
-      <c r="D100" s="233" t="s">
-        <v>330</v>
-      </c>
-      <c r="E100" s="233"/>
-      <c r="F100" s="233"/>
+      <c r="E100" s="243"/>
+      <c r="F100" s="243"/>
       <c r="G100" s="108"/>
       <c r="H100" s="176">
         <v>44177</v>
@@ -10422,19 +10472,19 @@
     </row>
     <row r="101" spans="1:16" s="119" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A101" s="143" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B101" s="143" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C101" s="143" t="s">
-        <v>334</v>
-      </c>
-      <c r="D101" s="233" t="s">
-        <v>330</v>
-      </c>
-      <c r="E101" s="233"/>
-      <c r="F101" s="233"/>
+        <v>333</v>
+      </c>
+      <c r="D101" s="243" t="s">
+        <v>329</v>
+      </c>
+      <c r="E101" s="243"/>
+      <c r="F101" s="243"/>
       <c r="G101" s="108"/>
       <c r="H101" s="176">
         <v>44177</v>
@@ -10446,36 +10496,36 @@
     </row>
     <row r="102" spans="1:16" s="119" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A102" s="143" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B102" s="143" t="s">
+        <v>379</v>
+      </c>
+      <c r="C102" s="143" t="s">
         <v>380</v>
       </c>
-      <c r="C102" s="143" t="s">
+      <c r="D102" s="237" t="s">
         <v>381</v>
       </c>
-      <c r="D102" s="227" t="s">
-        <v>382</v>
-      </c>
-      <c r="E102" s="228"/>
-      <c r="F102" s="229"/>
+      <c r="E102" s="238"/>
+      <c r="F102" s="239"/>
       <c r="G102" s="140"/>
       <c r="H102" s="176">
         <v>44177</v>
       </c>
-      <c r="I102" s="272" t="s">
+      <c r="I102" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J102" s="272" t="s">
-        <v>517</v>
+      <c r="J102" s="175" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1" outlineLevel="1">
-      <c r="A103" s="223" t="s">
-        <v>398</v>
-      </c>
-      <c r="B103" s="224"/>
-      <c r="C103" s="224"/>
+      <c r="A103" s="233" t="s">
+        <v>397</v>
+      </c>
+      <c r="B103" s="234"/>
+      <c r="C103" s="234"/>
       <c r="D103" s="105"/>
       <c r="E103" s="105"/>
       <c r="F103" s="105"/>
@@ -10491,7 +10541,7 @@
     </row>
     <row r="104" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A104" s="131" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B104" s="142" t="s">
         <v>116</v>
@@ -10499,13 +10549,17 @@
       <c r="C104" s="141" t="s">
         <v>287</v>
       </c>
-      <c r="D104" s="231" t="s">
+      <c r="D104" s="241" t="s">
         <v>119</v>
       </c>
-      <c r="E104" s="232"/>
-      <c r="F104" s="232"/>
-      <c r="H104" s="200"/>
-      <c r="I104" s="180"/>
+      <c r="E104" s="242"/>
+      <c r="F104" s="242"/>
+      <c r="H104" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I104" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J104" s="181"/>
       <c r="K104" s="163"/>
       <c r="L104" s="163"/>
@@ -10515,7 +10569,7 @@
     </row>
     <row r="105" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A105" s="131" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B105" s="142" t="s">
         <v>139</v>
@@ -10523,13 +10577,17 @@
       <c r="C105" s="141" t="s">
         <v>288</v>
       </c>
-      <c r="D105" s="221" t="s">
+      <c r="D105" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="E105" s="220"/>
-      <c r="F105" s="220"/>
-      <c r="H105" s="200"/>
-      <c r="I105" s="180"/>
+      <c r="E105" s="230"/>
+      <c r="F105" s="230"/>
+      <c r="H105" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I105" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J105" s="181"/>
       <c r="K105" s="163"/>
       <c r="L105" s="163"/>
@@ -10539,7 +10597,7 @@
     </row>
     <row r="106" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A106" s="131" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B106" s="111" t="s">
         <v>150</v>
@@ -10547,13 +10605,17 @@
       <c r="C106" s="111" t="s">
         <v>289</v>
       </c>
-      <c r="D106" s="227" t="s">
+      <c r="D106" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="E106" s="228"/>
-      <c r="F106" s="229"/>
-      <c r="H106" s="200"/>
-      <c r="I106" s="180"/>
+      <c r="E106" s="238"/>
+      <c r="F106" s="239"/>
+      <c r="H106" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I106" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J106" s="181"/>
       <c r="K106" s="163"/>
       <c r="L106" s="163"/>
@@ -10563,7 +10625,7 @@
     </row>
     <row r="107" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A107" s="131" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B107" s="111" t="s">
         <v>152</v>
@@ -10571,14 +10633,20 @@
       <c r="C107" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="D107" s="227" t="s">
+      <c r="D107" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E107" s="228"/>
-      <c r="F107" s="229"/>
-      <c r="H107" s="200"/>
-      <c r="I107" s="180"/>
-      <c r="J107" s="181"/>
+      <c r="E107" s="238"/>
+      <c r="F107" s="239"/>
+      <c r="H107" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I107" s="216" t="s">
+        <v>11</v>
+      </c>
+      <c r="J107" s="181" t="s">
+        <v>48</v>
+      </c>
       <c r="K107" s="163"/>
       <c r="L107" s="163"/>
       <c r="M107" s="163"/>
@@ -10587,7 +10655,7 @@
     </row>
     <row r="108" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A108" s="131" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B108" s="111" t="s">
         <v>157</v>
@@ -10595,13 +10663,17 @@
       <c r="C108" s="111" t="s">
         <v>293</v>
       </c>
-      <c r="D108" s="227" t="s">
+      <c r="D108" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="E108" s="228"/>
-      <c r="F108" s="229"/>
-      <c r="H108" s="200"/>
-      <c r="I108" s="180"/>
+      <c r="E108" s="238"/>
+      <c r="F108" s="239"/>
+      <c r="H108" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I108" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J108" s="181"/>
       <c r="K108" s="163"/>
       <c r="L108" s="163"/>
@@ -10611,7 +10683,7 @@
     </row>
     <row r="109" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A109" s="131" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B109" s="111" t="s">
         <v>159</v>
@@ -10619,13 +10691,17 @@
       <c r="C109" s="111" t="s">
         <v>294</v>
       </c>
-      <c r="D109" s="227" t="s">
+      <c r="D109" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E109" s="228"/>
-      <c r="F109" s="229"/>
-      <c r="H109" s="200"/>
-      <c r="I109" s="180"/>
+      <c r="E109" s="238"/>
+      <c r="F109" s="239"/>
+      <c r="H109" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I109" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J109" s="181"/>
       <c r="K109" s="163"/>
       <c r="L109" s="163"/>
@@ -10635,7 +10711,7 @@
     </row>
     <row r="110" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A110" s="131" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B110" s="111" t="s">
         <v>161</v>
@@ -10643,14 +10719,20 @@
       <c r="C110" s="111" t="s">
         <v>295</v>
       </c>
-      <c r="D110" s="227" t="s">
+      <c r="D110" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="E110" s="228"/>
-      <c r="F110" s="229"/>
-      <c r="H110" s="200"/>
-      <c r="I110" s="180"/>
-      <c r="J110" s="181"/>
+      <c r="E110" s="238"/>
+      <c r="F110" s="239"/>
+      <c r="H110" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I110" s="216" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" s="181" t="s">
+        <v>48</v>
+      </c>
       <c r="K110" s="163"/>
       <c r="L110" s="163"/>
       <c r="M110" s="163"/>
@@ -10659,7 +10741,7 @@
     </row>
     <row r="111" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A111" s="131" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B111" s="111" t="s">
         <v>164</v>
@@ -10667,13 +10749,17 @@
       <c r="C111" s="111" t="s">
         <v>254</v>
       </c>
-      <c r="D111" s="227" t="s">
+      <c r="D111" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="E111" s="228"/>
-      <c r="F111" s="229"/>
-      <c r="H111" s="200"/>
-      <c r="I111" s="180"/>
+      <c r="E111" s="238"/>
+      <c r="F111" s="239"/>
+      <c r="H111" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I111" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J111" s="181"/>
       <c r="K111" s="163"/>
       <c r="L111" s="163"/>
@@ -10683,7 +10769,7 @@
     </row>
     <row r="112" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A112" s="131" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B112" s="111" t="s">
         <v>166</v>
@@ -10691,14 +10777,20 @@
       <c r="C112" s="111" t="s">
         <v>296</v>
       </c>
-      <c r="D112" s="227" t="s">
+      <c r="D112" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E112" s="228"/>
-      <c r="F112" s="229"/>
-      <c r="H112" s="200"/>
-      <c r="I112" s="180"/>
-      <c r="J112" s="181"/>
+      <c r="E112" s="238"/>
+      <c r="F112" s="239"/>
+      <c r="H112" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I112" s="216" t="s">
+        <v>11</v>
+      </c>
+      <c r="J112" s="181" t="s">
+        <v>48</v>
+      </c>
       <c r="K112" s="163"/>
       <c r="L112" s="163"/>
       <c r="M112" s="163"/>
@@ -10707,7 +10799,7 @@
     </row>
     <row r="113" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A113" s="131" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B113" s="111" t="s">
         <v>168</v>
@@ -10715,14 +10807,20 @@
       <c r="C113" s="111" t="s">
         <v>298</v>
       </c>
-      <c r="D113" s="227" t="s">
+      <c r="D113" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="E113" s="228"/>
-      <c r="F113" s="229"/>
-      <c r="H113" s="200"/>
-      <c r="I113" s="180"/>
-      <c r="J113" s="181"/>
+      <c r="E113" s="238"/>
+      <c r="F113" s="239"/>
+      <c r="H113" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I113" s="216" t="s">
+        <v>11</v>
+      </c>
+      <c r="J113" s="181" t="s">
+        <v>48</v>
+      </c>
       <c r="K113" s="163"/>
       <c r="L113" s="163"/>
       <c r="M113" s="163"/>
@@ -10731,7 +10829,7 @@
     </row>
     <row r="114" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A114" s="131" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B114" s="111" t="s">
         <v>171</v>
@@ -10739,13 +10837,17 @@
       <c r="C114" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="D114" s="227" t="s">
+      <c r="D114" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="E114" s="228"/>
-      <c r="F114" s="229"/>
-      <c r="H114" s="200"/>
-      <c r="I114" s="180"/>
+      <c r="E114" s="238"/>
+      <c r="F114" s="239"/>
+      <c r="H114" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I114" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J114" s="181"/>
       <c r="K114" s="163"/>
       <c r="L114" s="163"/>
@@ -10755,7 +10857,7 @@
     </row>
     <row r="115" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A115" s="131" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B115" s="111" t="s">
         <v>173</v>
@@ -10763,13 +10865,17 @@
       <c r="C115" s="111" t="s">
         <v>300</v>
       </c>
-      <c r="D115" s="227" t="s">
+      <c r="D115" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E115" s="228"/>
-      <c r="F115" s="229"/>
-      <c r="H115" s="200"/>
-      <c r="I115" s="180"/>
+      <c r="E115" s="238"/>
+      <c r="F115" s="239"/>
+      <c r="H115" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I115" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J115" s="181"/>
       <c r="K115" s="163"/>
       <c r="L115" s="163"/>
@@ -10779,7 +10885,7 @@
     </row>
     <row r="116" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A116" s="131" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B116" s="111" t="s">
         <v>175</v>
@@ -10787,13 +10893,17 @@
       <c r="C116" s="111" t="s">
         <v>301</v>
       </c>
-      <c r="D116" s="227" t="s">
+      <c r="D116" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E116" s="228"/>
-      <c r="F116" s="229"/>
-      <c r="H116" s="200"/>
-      <c r="I116" s="180"/>
+      <c r="E116" s="238"/>
+      <c r="F116" s="239"/>
+      <c r="H116" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I116" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J116" s="181"/>
       <c r="K116" s="163"/>
       <c r="L116" s="163"/>
@@ -10803,7 +10913,7 @@
     </row>
     <row r="117" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A117" s="131" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B117" s="111" t="s">
         <v>178</v>
@@ -10811,14 +10921,20 @@
       <c r="C117" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="D117" s="227" t="s">
+      <c r="D117" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E117" s="228"/>
-      <c r="F117" s="229"/>
-      <c r="H117" s="200"/>
-      <c r="I117" s="180"/>
-      <c r="J117" s="181"/>
+      <c r="E117" s="238"/>
+      <c r="F117" s="239"/>
+      <c r="H117" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I117" s="216" t="s">
+        <v>11</v>
+      </c>
+      <c r="J117" s="181" t="s">
+        <v>537</v>
+      </c>
       <c r="K117" s="163"/>
       <c r="L117" s="163"/>
       <c r="M117" s="163"/>
@@ -10827,7 +10943,7 @@
     </row>
     <row r="118" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A118" s="131" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B118" s="142" t="s">
         <v>303</v>
@@ -10835,14 +10951,20 @@
       <c r="C118" s="141" t="s">
         <v>304</v>
       </c>
-      <c r="D118" s="221" t="s">
+      <c r="D118" s="231" t="s">
         <v>176</v>
       </c>
-      <c r="E118" s="220"/>
-      <c r="F118" s="220"/>
-      <c r="H118" s="200"/>
-      <c r="I118" s="180"/>
-      <c r="J118" s="181"/>
+      <c r="E118" s="230"/>
+      <c r="F118" s="230"/>
+      <c r="H118" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I118" s="216" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118" s="181" t="s">
+        <v>537</v>
+      </c>
       <c r="K118" s="163"/>
       <c r="L118" s="163"/>
       <c r="M118" s="163"/>
@@ -10851,7 +10973,7 @@
     </row>
     <row r="119" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A119" s="131" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B119" s="122" t="s">
         <v>180</v>
@@ -10859,13 +10981,17 @@
       <c r="C119" s="122" t="s">
         <v>305</v>
       </c>
-      <c r="D119" s="227" t="s">
+      <c r="D119" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="E119" s="228"/>
-      <c r="F119" s="229"/>
-      <c r="H119" s="200"/>
-      <c r="I119" s="180"/>
+      <c r="E119" s="238"/>
+      <c r="F119" s="239"/>
+      <c r="H119" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I119" s="218" t="s">
+        <v>47</v>
+      </c>
       <c r="J119" s="181"/>
       <c r="K119" s="163"/>
       <c r="L119" s="163"/>
@@ -10875,21 +11001,25 @@
     </row>
     <row r="120" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A120" s="131" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B120" s="122" t="s">
         <v>182</v>
       </c>
       <c r="C120" s="122" t="s">
-        <v>306</v>
-      </c>
-      <c r="D120" s="227" t="s">
+        <v>561</v>
+      </c>
+      <c r="D120" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="E120" s="228"/>
-      <c r="F120" s="229"/>
-      <c r="H120" s="200"/>
-      <c r="I120" s="180"/>
+      <c r="E120" s="238"/>
+      <c r="F120" s="239"/>
+      <c r="H120" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I120" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J120" s="181"/>
       <c r="K120" s="163"/>
       <c r="L120" s="163"/>
@@ -10899,22 +11029,28 @@
     </row>
     <row r="121" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A121" s="131" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B121" s="122" t="s">
         <v>184</v>
       </c>
       <c r="C121" s="122" t="s">
-        <v>307</v>
-      </c>
-      <c r="D121" s="227" t="s">
+        <v>306</v>
+      </c>
+      <c r="D121" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E121" s="228"/>
-      <c r="F121" s="229"/>
-      <c r="H121" s="200"/>
-      <c r="I121" s="180"/>
-      <c r="J121" s="181"/>
+      <c r="E121" s="238"/>
+      <c r="F121" s="239"/>
+      <c r="H121" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I121" s="216" t="s">
+        <v>11</v>
+      </c>
+      <c r="J121" s="181" t="s">
+        <v>48</v>
+      </c>
       <c r="K121" s="163"/>
       <c r="L121" s="163"/>
       <c r="M121" s="163"/>
@@ -10923,21 +11059,25 @@
     </row>
     <row r="122" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A122" s="131" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B122" s="122" t="s">
         <v>207</v>
       </c>
       <c r="C122" s="122" t="s">
-        <v>308</v>
-      </c>
-      <c r="D122" s="227" t="s">
+        <v>307</v>
+      </c>
+      <c r="D122" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="E122" s="228"/>
-      <c r="F122" s="229"/>
-      <c r="H122" s="200"/>
-      <c r="I122" s="180"/>
+      <c r="E122" s="238"/>
+      <c r="F122" s="239"/>
+      <c r="H122" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I122" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J122" s="181"/>
       <c r="K122" s="163"/>
       <c r="L122" s="163"/>
@@ -10947,21 +11087,25 @@
     </row>
     <row r="123" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A123" s="131" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B123" s="122" t="s">
         <v>209</v>
       </c>
       <c r="C123" s="122" t="s">
-        <v>309</v>
-      </c>
-      <c r="D123" s="227" t="s">
+        <v>308</v>
+      </c>
+      <c r="D123" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="E123" s="228"/>
-      <c r="F123" s="229"/>
-      <c r="H123" s="200"/>
-      <c r="I123" s="180"/>
+      <c r="E123" s="238"/>
+      <c r="F123" s="239"/>
+      <c r="H123" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I123" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J123" s="181"/>
       <c r="K123" s="163"/>
       <c r="L123" s="163"/>
@@ -10971,21 +11115,25 @@
     </row>
     <row r="124" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A124" s="131" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B124" s="122" t="s">
         <v>210</v>
       </c>
       <c r="C124" s="122" t="s">
-        <v>310</v>
-      </c>
-      <c r="D124" s="227" t="s">
+        <v>309</v>
+      </c>
+      <c r="D124" s="237" t="s">
         <v>189</v>
       </c>
-      <c r="E124" s="228"/>
-      <c r="F124" s="229"/>
-      <c r="H124" s="200"/>
-      <c r="I124" s="180"/>
+      <c r="E124" s="238"/>
+      <c r="F124" s="239"/>
+      <c r="H124" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I124" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J124" s="181"/>
       <c r="K124" s="163"/>
       <c r="L124" s="163"/>
@@ -10995,21 +11143,25 @@
     </row>
     <row r="125" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A125" s="131" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B125" s="122" t="s">
         <v>212</v>
       </c>
       <c r="C125" s="122" t="s">
-        <v>311</v>
-      </c>
-      <c r="D125" s="227" t="s">
+        <v>310</v>
+      </c>
+      <c r="D125" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E125" s="228"/>
-      <c r="F125" s="229"/>
-      <c r="H125" s="200"/>
-      <c r="I125" s="180"/>
+      <c r="E125" s="238"/>
+      <c r="F125" s="239"/>
+      <c r="H125" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I125" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J125" s="181"/>
       <c r="K125" s="163"/>
       <c r="L125" s="163"/>
@@ -11019,21 +11171,25 @@
     </row>
     <row r="126" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A126" s="131" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B126" s="122" t="s">
         <v>223</v>
       </c>
       <c r="C126" s="122" t="s">
-        <v>312</v>
-      </c>
-      <c r="D126" s="227" t="s">
+        <v>311</v>
+      </c>
+      <c r="D126" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E126" s="228"/>
-      <c r="F126" s="229"/>
-      <c r="H126" s="200"/>
-      <c r="I126" s="180"/>
+      <c r="E126" s="238"/>
+      <c r="F126" s="239"/>
+      <c r="H126" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I126" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J126" s="181"/>
       <c r="K126" s="163"/>
       <c r="L126" s="163"/>
@@ -11043,21 +11199,25 @@
     </row>
     <row r="127" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A127" s="131" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B127" s="122" t="s">
         <v>236</v>
       </c>
       <c r="C127" s="122" t="s">
-        <v>313</v>
-      </c>
-      <c r="D127" s="227" t="s">
+        <v>312</v>
+      </c>
+      <c r="D127" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E127" s="228"/>
-      <c r="F127" s="229"/>
-      <c r="H127" s="200"/>
-      <c r="I127" s="180"/>
+      <c r="E127" s="238"/>
+      <c r="F127" s="239"/>
+      <c r="H127" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I127" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J127" s="181"/>
       <c r="K127" s="163"/>
       <c r="L127" s="163"/>
@@ -11067,21 +11227,25 @@
     </row>
     <row r="128" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A128" s="131" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B128" s="122" t="s">
         <v>238</v>
       </c>
       <c r="C128" s="122" t="s">
-        <v>314</v>
-      </c>
-      <c r="D128" s="227" t="s">
+        <v>313</v>
+      </c>
+      <c r="D128" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E128" s="228"/>
-      <c r="F128" s="229"/>
-      <c r="H128" s="200"/>
-      <c r="I128" s="180"/>
+      <c r="E128" s="238"/>
+      <c r="F128" s="239"/>
+      <c r="H128" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I128" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J128" s="181"/>
       <c r="K128" s="163"/>
       <c r="L128" s="163"/>
@@ -11091,21 +11255,25 @@
     </row>
     <row r="129" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A129" s="131" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B129" s="122" t="s">
         <v>240</v>
       </c>
       <c r="C129" s="122" t="s">
-        <v>315</v>
-      </c>
-      <c r="D129" s="227" t="s">
+        <v>314</v>
+      </c>
+      <c r="D129" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E129" s="228"/>
-      <c r="F129" s="229"/>
-      <c r="H129" s="200"/>
-      <c r="I129" s="180"/>
+      <c r="E129" s="238"/>
+      <c r="F129" s="239"/>
+      <c r="H129" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I129" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J129" s="181"/>
       <c r="K129" s="163"/>
       <c r="L129" s="163"/>
@@ -11115,21 +11283,25 @@
     </row>
     <row r="130" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A130" s="131" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B130" s="122" t="s">
         <v>242</v>
       </c>
       <c r="C130" s="122" t="s">
-        <v>316</v>
-      </c>
-      <c r="D130" s="227" t="s">
+        <v>315</v>
+      </c>
+      <c r="D130" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E130" s="228"/>
-      <c r="F130" s="229"/>
-      <c r="H130" s="200"/>
-      <c r="I130" s="180"/>
+      <c r="E130" s="238"/>
+      <c r="F130" s="239"/>
+      <c r="H130" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I130" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J130" s="181"/>
       <c r="K130" s="163"/>
       <c r="L130" s="163"/>
@@ -11139,21 +11311,25 @@
     </row>
     <row r="131" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A131" s="131" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B131" s="122" t="s">
         <v>244</v>
       </c>
       <c r="C131" s="122" t="s">
-        <v>317</v>
-      </c>
-      <c r="D131" s="227" t="s">
+        <v>316</v>
+      </c>
+      <c r="D131" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E131" s="228"/>
-      <c r="F131" s="229"/>
-      <c r="H131" s="200"/>
-      <c r="I131" s="180"/>
+      <c r="E131" s="238"/>
+      <c r="F131" s="239"/>
+      <c r="H131" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I131" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J131" s="181"/>
       <c r="K131" s="163"/>
       <c r="L131" s="163"/>
@@ -11163,21 +11339,25 @@
     </row>
     <row r="132" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A132" s="131" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B132" s="122" t="s">
         <v>247</v>
       </c>
       <c r="C132" s="122" t="s">
-        <v>318</v>
-      </c>
-      <c r="D132" s="227" t="s">
+        <v>317</v>
+      </c>
+      <c r="D132" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E132" s="228"/>
-      <c r="F132" s="229"/>
-      <c r="H132" s="200"/>
-      <c r="I132" s="180"/>
+      <c r="E132" s="238"/>
+      <c r="F132" s="239"/>
+      <c r="H132" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I132" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J132" s="181"/>
       <c r="K132" s="163"/>
       <c r="L132" s="163"/>
@@ -11187,21 +11367,25 @@
     </row>
     <row r="133" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A133" s="131" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B133" s="122" t="s">
         <v>248</v>
       </c>
       <c r="C133" s="122" t="s">
-        <v>319</v>
-      </c>
-      <c r="D133" s="227" t="s">
+        <v>318</v>
+      </c>
+      <c r="D133" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E133" s="228"/>
-      <c r="F133" s="229"/>
-      <c r="H133" s="200"/>
-      <c r="I133" s="180"/>
+      <c r="E133" s="238"/>
+      <c r="F133" s="239"/>
+      <c r="H133" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I133" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J133" s="181"/>
       <c r="K133" s="163"/>
       <c r="L133" s="163"/>
@@ -11211,21 +11395,25 @@
     </row>
     <row r="134" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A134" s="131" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B134" s="122" t="s">
         <v>251</v>
       </c>
       <c r="C134" s="122" t="s">
-        <v>320</v>
-      </c>
-      <c r="D134" s="227" t="s">
+        <v>319</v>
+      </c>
+      <c r="D134" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="E134" s="228"/>
-      <c r="F134" s="229"/>
-      <c r="H134" s="200"/>
-      <c r="I134" s="180"/>
+      <c r="E134" s="238"/>
+      <c r="F134" s="239"/>
+      <c r="H134" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I134" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J134" s="181"/>
       <c r="K134" s="163"/>
       <c r="L134" s="163"/>
@@ -11235,21 +11423,25 @@
     </row>
     <row r="135" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A135" s="131" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B135" s="122" t="s">
         <v>273</v>
       </c>
       <c r="C135" s="122" t="s">
-        <v>321</v>
-      </c>
-      <c r="D135" s="227" t="s">
+        <v>320</v>
+      </c>
+      <c r="D135" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="E135" s="228"/>
-      <c r="F135" s="229"/>
-      <c r="H135" s="200"/>
-      <c r="I135" s="180"/>
+      <c r="E135" s="238"/>
+      <c r="F135" s="239"/>
+      <c r="H135" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I135" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J135" s="181"/>
       <c r="K135" s="163"/>
       <c r="L135" s="163"/>
@@ -11259,21 +11451,25 @@
     </row>
     <row r="136" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A136" s="131" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B136" s="122" t="s">
         <v>275</v>
       </c>
       <c r="C136" s="122" t="s">
-        <v>322</v>
-      </c>
-      <c r="D136" s="227" t="s">
+        <v>321</v>
+      </c>
+      <c r="D136" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E136" s="228"/>
-      <c r="F136" s="229"/>
-      <c r="H136" s="200"/>
-      <c r="I136" s="180"/>
+      <c r="E136" s="238"/>
+      <c r="F136" s="239"/>
+      <c r="H136" s="198">
+        <v>44179</v>
+      </c>
+      <c r="I136" s="180" t="s">
+        <v>47</v>
+      </c>
       <c r="J136" s="181"/>
       <c r="K136" s="163"/>
       <c r="L136" s="163"/>
@@ -11283,22 +11479,26 @@
     </row>
     <row r="137" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A137" s="112" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B137" s="122" t="s">
         <v>277</v>
       </c>
       <c r="C137" s="122" t="s">
-        <v>323</v>
-      </c>
-      <c r="D137" s="227" t="s">
+        <v>322</v>
+      </c>
+      <c r="D137" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="E137" s="228"/>
-      <c r="F137" s="229"/>
+      <c r="E137" s="238"/>
+      <c r="F137" s="239"/>
       <c r="G137" s="130"/>
-      <c r="H137" s="197"/>
-      <c r="I137" s="182"/>
+      <c r="H137" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I137" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J137" s="172"/>
       <c r="K137" s="163"/>
       <c r="L137" s="163"/>
@@ -11307,11 +11507,11 @@
       <c r="O137" s="163"/>
     </row>
     <row r="138" spans="1:16" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A138" s="223" t="s">
-        <v>539</v>
-      </c>
-      <c r="B138" s="224"/>
-      <c r="C138" s="224"/>
+      <c r="A138" s="233" t="s">
+        <v>536</v>
+      </c>
+      <c r="B138" s="234"/>
+      <c r="C138" s="234"/>
       <c r="D138" s="124"/>
       <c r="E138" s="124"/>
       <c r="F138" s="124"/>
@@ -11327,7 +11527,7 @@
     </row>
     <row r="139" spans="1:16" s="118" customFormat="1" ht="70.5" customHeight="1">
       <c r="A139" s="111" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B139" s="111" t="s">
         <v>131</v>
@@ -11335,19 +11535,21 @@
       <c r="C139" s="111" t="s">
         <v>285</v>
       </c>
-      <c r="D139" s="227" t="s">
+      <c r="D139" s="237" t="s">
         <v>279</v>
       </c>
-      <c r="E139" s="228"/>
-      <c r="F139" s="229"/>
+      <c r="E139" s="238"/>
+      <c r="F139" s="239"/>
       <c r="G139" s="125"/>
       <c r="H139" s="176">
         <v>44178</v>
       </c>
-      <c r="I139" s="272" t="s">
+      <c r="I139" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="J139" s="185"/>
+      <c r="J139" s="185" t="s">
+        <v>537</v>
+      </c>
       <c r="K139" s="121"/>
       <c r="L139" s="119"/>
       <c r="M139" s="119"/>
@@ -11357,7 +11559,7 @@
     </row>
     <row r="140" spans="1:16" s="119" customFormat="1" ht="70.5" customHeight="1">
       <c r="A140" s="127" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B140" s="127" t="s">
         <v>280</v>
@@ -11365,23 +11567,25 @@
       <c r="C140" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="D140" s="227" t="s">
+      <c r="D140" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E140" s="228"/>
-      <c r="F140" s="228"/>
+      <c r="E140" s="238"/>
+      <c r="F140" s="238"/>
       <c r="G140" s="126"/>
-      <c r="H140" s="209">
+      <c r="H140" s="206">
         <v>44178</v>
       </c>
-      <c r="I140" s="273" t="s">
+      <c r="I140" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="J140" s="186"/>
+      <c r="J140" s="186" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="141" spans="1:16" s="119" customFormat="1" ht="70.5" customHeight="1">
       <c r="A141" s="127" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B141" s="127" t="s">
         <v>282</v>
@@ -11389,23 +11593,25 @@
       <c r="C141" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="D141" s="227" t="s">
+      <c r="D141" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="E141" s="228"/>
-      <c r="F141" s="228"/>
+      <c r="E141" s="238"/>
+      <c r="F141" s="238"/>
       <c r="G141" s="126"/>
-      <c r="H141" s="209">
+      <c r="H141" s="206">
         <v>44178</v>
       </c>
-      <c r="I141" s="273" t="s">
+      <c r="I141" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="J141" s="186"/>
+      <c r="J141" s="186" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="142" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A142" s="128" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B142" s="116" t="s">
         <v>135</v>
@@ -11413,18 +11619,20 @@
       <c r="C142" s="117" t="s">
         <v>281</v>
       </c>
-      <c r="D142" s="265" t="s">
+      <c r="D142" s="274" t="s">
         <v>279</v>
       </c>
-      <c r="E142" s="266"/>
-      <c r="F142" s="266"/>
-      <c r="H142" s="210">
+      <c r="E142" s="275"/>
+      <c r="F142" s="275"/>
+      <c r="H142" s="207">
         <v>44178</v>
       </c>
-      <c r="I142" s="274" t="s">
+      <c r="I142" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="J142" s="187"/>
+      <c r="J142" s="187" t="s">
+        <v>537</v>
+      </c>
       <c r="K142" s="163"/>
       <c r="L142" s="163"/>
       <c r="M142" s="163"/>
@@ -11433,7 +11641,7 @@
     </row>
     <row r="143" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A143" s="129" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B143" s="94" t="s">
         <v>125</v>
@@ -11441,11 +11649,11 @@
       <c r="C143" s="90" t="s">
         <v>283</v>
       </c>
-      <c r="D143" s="234" t="s">
+      <c r="D143" s="244" t="s">
         <v>279</v>
       </c>
-      <c r="E143" s="234"/>
-      <c r="F143" s="234"/>
+      <c r="E143" s="244"/>
+      <c r="F143" s="244"/>
       <c r="H143" s="197">
         <v>44178</v>
       </c>
@@ -11461,7 +11669,7 @@
     </row>
     <row r="144" spans="1:16" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A144" s="129" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B144" s="94" t="s">
         <v>124</v>
@@ -11469,11 +11677,11 @@
       <c r="C144" s="90" t="s">
         <v>284</v>
       </c>
-      <c r="D144" s="234" t="s">
+      <c r="D144" s="244" t="s">
         <v>122</v>
       </c>
-      <c r="E144" s="234"/>
-      <c r="F144" s="234"/>
+      <c r="E144" s="244"/>
+      <c r="F144" s="244"/>
       <c r="H144" s="197">
         <v>44178</v>
       </c>
@@ -11488,11 +11696,11 @@
       <c r="O144" s="163"/>
     </row>
     <row r="145" spans="1:15" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A145" s="223" t="s">
-        <v>397</v>
-      </c>
-      <c r="B145" s="224"/>
-      <c r="C145" s="224"/>
+      <c r="A145" s="233" t="s">
+        <v>396</v>
+      </c>
+      <c r="B145" s="234"/>
+      <c r="C145" s="234"/>
       <c r="D145" s="105"/>
       <c r="E145" s="105"/>
       <c r="F145" s="105"/>
@@ -11508,26 +11716,28 @@
     </row>
     <row r="146" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A146" s="131" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B146" s="143" t="s">
+        <v>373</v>
+      </c>
+      <c r="C146" s="143" t="s">
         <v>374</v>
       </c>
-      <c r="C146" s="143" t="s">
+      <c r="D146" s="237" t="s">
         <v>375</v>
       </c>
-      <c r="D146" s="227" t="s">
-        <v>376</v>
-      </c>
-      <c r="E146" s="228"/>
-      <c r="F146" s="229"/>
-      <c r="H146" s="200">
+      <c r="E146" s="238"/>
+      <c r="F146" s="239"/>
+      <c r="H146" s="198">
         <v>44178</v>
       </c>
-      <c r="I146" s="278" t="s">
+      <c r="I146" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="J146" s="203"/>
+      <c r="J146" s="201" t="s">
+        <v>537</v>
+      </c>
       <c r="K146" s="163"/>
       <c r="L146" s="163"/>
       <c r="M146" s="163"/>
@@ -11536,19 +11746,19 @@
     </row>
     <row r="147" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A147" s="112" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B147" s="143" t="s">
+        <v>376</v>
+      </c>
+      <c r="C147" s="143" t="s">
         <v>377</v>
       </c>
-      <c r="C147" s="143" t="s">
-        <v>378</v>
-      </c>
-      <c r="D147" s="226" t="s">
-        <v>330</v>
-      </c>
-      <c r="E147" s="226"/>
-      <c r="F147" s="226"/>
+      <c r="D147" s="236" t="s">
+        <v>329</v>
+      </c>
+      <c r="E147" s="236"/>
+      <c r="F147" s="236"/>
       <c r="G147" s="130"/>
       <c r="H147" s="197">
         <v>44178</v>
@@ -11556,7 +11766,7 @@
       <c r="I147" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="J147" s="204"/>
+      <c r="J147" s="202"/>
       <c r="K147" s="163"/>
       <c r="L147" s="163"/>
       <c r="M147" s="163"/>
@@ -11565,19 +11775,19 @@
     </row>
     <row r="148" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A148" s="112" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B148" s="143" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C148" s="143" t="s">
-        <v>534</v>
-      </c>
-      <c r="D148" s="226" t="s">
-        <v>330</v>
-      </c>
-      <c r="E148" s="226"/>
-      <c r="F148" s="226"/>
+        <v>532</v>
+      </c>
+      <c r="D148" s="236" t="s">
+        <v>329</v>
+      </c>
+      <c r="E148" s="236"/>
+      <c r="F148" s="236"/>
       <c r="G148" s="130"/>
       <c r="H148" s="197">
         <v>44178</v>
@@ -11585,7 +11795,7 @@
       <c r="I148" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="J148" s="204"/>
+      <c r="J148" s="202"/>
       <c r="K148" s="163"/>
       <c r="L148" s="163"/>
       <c r="M148" s="163"/>
@@ -11594,28 +11804,28 @@
     </row>
     <row r="149" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A149" s="112" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B149" s="143" t="s">
+        <v>392</v>
+      </c>
+      <c r="C149" s="143" t="s">
         <v>393</v>
       </c>
-      <c r="C149" s="143" t="s">
+      <c r="D149" s="236" t="s">
         <v>394</v>
       </c>
-      <c r="D149" s="226" t="s">
-        <v>395</v>
-      </c>
-      <c r="E149" s="226"/>
-      <c r="F149" s="226"/>
+      <c r="E149" s="236"/>
+      <c r="F149" s="236"/>
       <c r="G149" s="130"/>
       <c r="H149" s="197">
         <v>44178</v>
       </c>
-      <c r="I149" s="275" t="s">
+      <c r="I149" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="J149" s="276" t="s">
-        <v>535</v>
+      <c r="J149" s="219" t="s">
+        <v>48</v>
       </c>
       <c r="K149" s="163"/>
       <c r="L149" s="163"/>
@@ -11624,11 +11834,11 @@
       <c r="O149" s="163"/>
     </row>
     <row r="150" spans="1:15" s="4" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A150" s="223" t="s">
-        <v>396</v>
-      </c>
-      <c r="B150" s="224"/>
-      <c r="C150" s="224"/>
+      <c r="A150" s="233" t="s">
+        <v>395</v>
+      </c>
+      <c r="B150" s="234"/>
+      <c r="C150" s="234"/>
       <c r="D150" s="105"/>
       <c r="E150" s="105"/>
       <c r="F150" s="105"/>
@@ -11644,27 +11854,27 @@
     </row>
     <row r="151" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A151" s="131" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B151" s="142" t="s">
+        <v>402</v>
+      </c>
+      <c r="C151" s="141" t="s">
         <v>403</v>
       </c>
-      <c r="C151" s="141" t="s">
+      <c r="D151" s="241" t="s">
         <v>404</v>
       </c>
-      <c r="D151" s="231" t="s">
-        <v>405</v>
-      </c>
-      <c r="E151" s="232"/>
-      <c r="F151" s="232"/>
-      <c r="H151" s="200">
+      <c r="E151" s="242"/>
+      <c r="F151" s="242"/>
+      <c r="H151" s="198">
         <v>44178</v>
       </c>
-      <c r="I151" s="278" t="s">
+      <c r="I151" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="J151" s="203" t="s">
-        <v>540</v>
+      <c r="J151" s="220" t="s">
+        <v>537</v>
       </c>
       <c r="K151" s="163"/>
       <c r="L151" s="163"/>
@@ -11674,19 +11884,19 @@
     </row>
     <row r="152" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A152" s="112" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B152" s="146" t="s">
+        <v>405</v>
+      </c>
+      <c r="C152" s="145" t="s">
         <v>406</v>
       </c>
-      <c r="C152" s="145" t="s">
+      <c r="D152" s="229" t="s">
         <v>407</v>
       </c>
-      <c r="D152" s="219" t="s">
-        <v>408</v>
-      </c>
-      <c r="E152" s="219"/>
-      <c r="F152" s="219"/>
+      <c r="E152" s="229"/>
+      <c r="F152" s="229"/>
       <c r="G152" s="130"/>
       <c r="H152" s="197">
         <v>44178</v>
@@ -11694,7 +11904,7 @@
       <c r="I152" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="J152" s="204"/>
+      <c r="J152" s="202"/>
       <c r="K152" s="163"/>
       <c r="L152" s="163"/>
       <c r="M152" s="163"/>
@@ -11703,19 +11913,19 @@
     </row>
     <row r="153" spans="1:15" s="91" customFormat="1" ht="120" customHeight="1" outlineLevel="1">
       <c r="A153" s="112" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B153" s="146" t="s">
+        <v>410</v>
+      </c>
+      <c r="C153" s="145" t="s">
         <v>411</v>
       </c>
-      <c r="C153" s="145" t="s">
-        <v>412</v>
-      </c>
-      <c r="D153" s="221" t="s">
-        <v>536</v>
-      </c>
-      <c r="E153" s="220"/>
-      <c r="F153" s="222"/>
+      <c r="D153" s="231" t="s">
+        <v>533</v>
+      </c>
+      <c r="E153" s="230"/>
+      <c r="F153" s="232"/>
       <c r="G153" s="130"/>
       <c r="H153" s="197">
         <v>44178</v>
@@ -11723,7 +11933,7 @@
       <c r="I153" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="J153" s="204"/>
+      <c r="J153" s="202"/>
       <c r="K153" s="163"/>
       <c r="L153" s="163"/>
       <c r="M153" s="163"/>
@@ -11732,19 +11942,19 @@
     </row>
     <row r="154" spans="1:15" s="91" customFormat="1" ht="100.05" customHeight="1" outlineLevel="1">
       <c r="A154" s="112" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B154" s="146" t="s">
+        <v>408</v>
+      </c>
+      <c r="C154" s="144" t="s">
         <v>409</v>
       </c>
-      <c r="C154" s="144" t="s">
-        <v>410</v>
-      </c>
-      <c r="D154" s="221" t="s">
-        <v>408</v>
-      </c>
-      <c r="E154" s="220"/>
-      <c r="F154" s="222"/>
+      <c r="D154" s="231" t="s">
+        <v>407</v>
+      </c>
+      <c r="E154" s="230"/>
+      <c r="F154" s="232"/>
       <c r="G154" s="130"/>
       <c r="H154" s="197">
         <v>44178</v>
@@ -11752,7 +11962,7 @@
       <c r="I154" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="J154" s="204"/>
+      <c r="J154" s="202"/>
       <c r="K154" s="163"/>
       <c r="L154" s="163"/>
       <c r="M154" s="163"/>
@@ -11761,19 +11971,19 @@
     </row>
     <row r="155" spans="1:15" s="91" customFormat="1" ht="109.95" customHeight="1" outlineLevel="1">
       <c r="A155" s="112" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B155" s="146" t="s">
+        <v>414</v>
+      </c>
+      <c r="C155" s="145" t="s">
         <v>415</v>
       </c>
-      <c r="C155" s="145" t="s">
-        <v>416</v>
-      </c>
-      <c r="D155" s="221" t="s">
-        <v>413</v>
-      </c>
-      <c r="E155" s="220"/>
-      <c r="F155" s="222"/>
+      <c r="D155" s="231" t="s">
+        <v>412</v>
+      </c>
+      <c r="E155" s="230"/>
+      <c r="F155" s="232"/>
       <c r="G155" s="130"/>
       <c r="H155" s="197">
         <v>44178</v>
@@ -11781,7 +11991,7 @@
       <c r="I155" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="J155" s="204"/>
+      <c r="J155" s="202"/>
       <c r="K155" s="163"/>
       <c r="L155" s="163"/>
       <c r="M155" s="163"/>
@@ -11790,19 +12000,19 @@
     </row>
     <row r="156" spans="1:15" s="148" customFormat="1" ht="109.95" customHeight="1" outlineLevel="1">
       <c r="A156" s="112" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B156" s="146" t="s">
+        <v>417</v>
+      </c>
+      <c r="C156" s="145" t="s">
         <v>418</v>
       </c>
-      <c r="C156" s="145" t="s">
-        <v>419</v>
-      </c>
-      <c r="D156" s="221" t="s">
-        <v>536</v>
-      </c>
-      <c r="E156" s="220"/>
-      <c r="F156" s="222"/>
+      <c r="D156" s="231" t="s">
+        <v>533</v>
+      </c>
+      <c r="E156" s="230"/>
+      <c r="F156" s="232"/>
       <c r="G156" s="147"/>
       <c r="H156" s="197">
         <v>44178</v>
@@ -11810,7 +12020,7 @@
       <c r="I156" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="J156" s="204"/>
+      <c r="J156" s="202"/>
       <c r="K156" s="164"/>
       <c r="L156" s="164"/>
       <c r="M156" s="164"/>
@@ -11819,19 +12029,19 @@
     </row>
     <row r="157" spans="1:15" s="148" customFormat="1" ht="120" customHeight="1" outlineLevel="1">
       <c r="A157" s="112" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B157" s="146" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C157" s="145" t="s">
-        <v>421</v>
-      </c>
-      <c r="D157" s="221" t="s">
-        <v>536</v>
-      </c>
-      <c r="E157" s="220"/>
-      <c r="F157" s="222"/>
+        <v>420</v>
+      </c>
+      <c r="D157" s="231" t="s">
+        <v>533</v>
+      </c>
+      <c r="E157" s="230"/>
+      <c r="F157" s="232"/>
       <c r="G157" s="147"/>
       <c r="H157" s="197">
         <v>44178</v>
@@ -11839,7 +12049,7 @@
       <c r="I157" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="J157" s="204"/>
+      <c r="J157" s="202"/>
       <c r="K157" s="164"/>
       <c r="L157" s="164"/>
       <c r="M157" s="164"/>
@@ -11848,19 +12058,19 @@
     </row>
     <row r="158" spans="1:15" s="148" customFormat="1" ht="120" customHeight="1" outlineLevel="1">
       <c r="A158" s="112" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B158" s="146" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C158" s="145" t="s">
-        <v>425</v>
-      </c>
-      <c r="D158" s="221" t="s">
-        <v>536</v>
-      </c>
-      <c r="E158" s="220"/>
-      <c r="F158" s="222"/>
+        <v>424</v>
+      </c>
+      <c r="D158" s="231" t="s">
+        <v>533</v>
+      </c>
+      <c r="E158" s="230"/>
+      <c r="F158" s="232"/>
       <c r="G158" s="147"/>
       <c r="H158" s="197">
         <v>44178</v>
@@ -11868,7 +12078,7 @@
       <c r="I158" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="J158" s="204"/>
+      <c r="J158" s="202"/>
       <c r="K158" s="164"/>
       <c r="L158" s="164"/>
       <c r="M158" s="164"/>
@@ -11877,19 +12087,19 @@
     </row>
     <row r="159" spans="1:15" s="148" customFormat="1" ht="120" customHeight="1" outlineLevel="1">
       <c r="A159" s="112" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B159" s="146" t="s">
+        <v>426</v>
+      </c>
+      <c r="C159" s="144" t="s">
         <v>427</v>
       </c>
-      <c r="C159" s="144" t="s">
-        <v>428</v>
-      </c>
-      <c r="D159" s="221" t="s">
-        <v>536</v>
-      </c>
-      <c r="E159" s="220"/>
-      <c r="F159" s="222"/>
+      <c r="D159" s="231" t="s">
+        <v>533</v>
+      </c>
+      <c r="E159" s="230"/>
+      <c r="F159" s="232"/>
       <c r="G159" s="147"/>
       <c r="H159" s="197">
         <v>44178</v>
@@ -11897,7 +12107,7 @@
       <c r="I159" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="J159" s="204"/>
+      <c r="J159" s="202"/>
       <c r="K159" s="164"/>
       <c r="L159" s="164"/>
       <c r="M159" s="164"/>
@@ -11905,11 +12115,11 @@
       <c r="O159" s="164"/>
     </row>
     <row r="160" spans="1:15" s="4" customFormat="1" ht="19.95" customHeight="1" outlineLevel="1">
-      <c r="A160" s="223" t="s">
-        <v>429</v>
-      </c>
-      <c r="B160" s="224"/>
-      <c r="C160" s="224"/>
+      <c r="A160" s="233" t="s">
+        <v>428</v>
+      </c>
+      <c r="B160" s="234"/>
+      <c r="C160" s="234"/>
       <c r="D160" s="105"/>
       <c r="E160" s="105"/>
       <c r="F160" s="105"/>
@@ -11925,23 +12135,23 @@
     </row>
     <row r="161" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A161" s="112" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B161" s="146" t="s">
+        <v>465</v>
+      </c>
+      <c r="C161" s="145" t="s">
+        <v>469</v>
+      </c>
+      <c r="D161" s="231" t="s">
         <v>466</v>
       </c>
-      <c r="C161" s="145" t="s">
-        <v>470</v>
-      </c>
-      <c r="D161" s="221" t="s">
-        <v>467</v>
-      </c>
-      <c r="E161" s="220"/>
-      <c r="F161" s="220"/>
+      <c r="E161" s="230"/>
+      <c r="F161" s="230"/>
       <c r="H161" s="197">
         <v>44178</v>
       </c>
-      <c r="I161" s="270" t="s">
+      <c r="I161" s="208" t="s">
         <v>47</v>
       </c>
       <c r="J161" s="172"/>
@@ -11953,19 +12163,19 @@
     </row>
     <row r="162" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A162" s="114" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B162" s="154" t="s">
+        <v>467</v>
+      </c>
+      <c r="C162" s="155" t="s">
         <v>468</v>
       </c>
-      <c r="C162" s="155" t="s">
-        <v>469</v>
-      </c>
-      <c r="D162" s="220" t="s">
-        <v>467</v>
-      </c>
-      <c r="E162" s="220"/>
-      <c r="F162" s="220"/>
+      <c r="D162" s="230" t="s">
+        <v>466</v>
+      </c>
+      <c r="E162" s="230"/>
+      <c r="F162" s="230"/>
       <c r="H162" s="197">
         <v>44178</v>
       </c>
@@ -11981,19 +12191,19 @@
     </row>
     <row r="163" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A163" s="114" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B163" s="154" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C163" s="155" t="s">
-        <v>541</v>
-      </c>
-      <c r="D163" s="220" t="s">
-        <v>467</v>
-      </c>
-      <c r="E163" s="220"/>
-      <c r="F163" s="220"/>
+        <v>538</v>
+      </c>
+      <c r="D163" s="230" t="s">
+        <v>466</v>
+      </c>
+      <c r="E163" s="230"/>
+      <c r="F163" s="230"/>
       <c r="H163" s="197">
         <v>44178</v>
       </c>
@@ -12009,19 +12219,19 @@
     </row>
     <row r="164" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A164" s="114" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B164" s="154" t="s">
+        <v>471</v>
+      </c>
+      <c r="C164" s="155" t="s">
+        <v>539</v>
+      </c>
+      <c r="D164" s="230" t="s">
         <v>472</v>
       </c>
-      <c r="C164" s="155" t="s">
-        <v>542</v>
-      </c>
-      <c r="D164" s="220" t="s">
-        <v>473</v>
-      </c>
-      <c r="E164" s="220"/>
-      <c r="F164" s="220"/>
+      <c r="E164" s="230"/>
+      <c r="F164" s="230"/>
       <c r="H164" s="197">
         <v>44178</v>
       </c>
@@ -12037,19 +12247,19 @@
     </row>
     <row r="165" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A165" s="114" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B165" s="154" t="s">
+        <v>473</v>
+      </c>
+      <c r="C165" s="155" t="s">
+        <v>540</v>
+      </c>
+      <c r="D165" s="230" t="s">
         <v>474</v>
       </c>
-      <c r="C165" s="155" t="s">
-        <v>543</v>
-      </c>
-      <c r="D165" s="220" t="s">
-        <v>475</v>
-      </c>
-      <c r="E165" s="220"/>
-      <c r="F165" s="220"/>
+      <c r="E165" s="230"/>
+      <c r="F165" s="230"/>
       <c r="H165" s="197">
         <v>44178</v>
       </c>
@@ -12065,19 +12275,19 @@
     </row>
     <row r="166" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A166" s="114" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B166" s="154" t="s">
+        <v>475</v>
+      </c>
+      <c r="C166" s="155" t="s">
+        <v>542</v>
+      </c>
+      <c r="D166" s="230" t="s">
         <v>476</v>
       </c>
-      <c r="C166" s="155" t="s">
-        <v>545</v>
-      </c>
-      <c r="D166" s="220" t="s">
-        <v>477</v>
-      </c>
-      <c r="E166" s="220"/>
-      <c r="F166" s="220"/>
+      <c r="E166" s="230"/>
+      <c r="F166" s="230"/>
       <c r="H166" s="197">
         <v>44178</v>
       </c>
@@ -12093,19 +12303,19 @@
     </row>
     <row r="167" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A167" s="114" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B167" s="154" t="s">
+        <v>482</v>
+      </c>
+      <c r="C167" s="155" t="s">
+        <v>541</v>
+      </c>
+      <c r="D167" s="230" t="s">
         <v>483</v>
       </c>
-      <c r="C167" s="155" t="s">
-        <v>544</v>
-      </c>
-      <c r="D167" s="220" t="s">
-        <v>484</v>
-      </c>
-      <c r="E167" s="220"/>
-      <c r="F167" s="220"/>
+      <c r="E167" s="230"/>
+      <c r="F167" s="230"/>
       <c r="H167" s="197">
         <v>44178</v>
       </c>
@@ -12120,11 +12330,11 @@
       <c r="O167" s="163"/>
     </row>
     <row r="168" spans="1:15" s="4" customFormat="1" ht="19.95" customHeight="1" outlineLevel="1">
-      <c r="A168" s="223" t="s">
-        <v>432</v>
-      </c>
-      <c r="B168" s="224"/>
-      <c r="C168" s="224"/>
+      <c r="A168" s="233" t="s">
+        <v>431</v>
+      </c>
+      <c r="B168" s="234"/>
+      <c r="C168" s="234"/>
       <c r="D168" s="105"/>
       <c r="E168" s="105"/>
       <c r="F168" s="105"/>
@@ -12140,22 +12350,26 @@
     </row>
     <row r="169" spans="1:15" s="4" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A169" s="132" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B169" s="133" t="s">
+        <v>449</v>
+      </c>
+      <c r="C169" s="133" t="s">
         <v>450</v>
       </c>
-      <c r="C169" s="133" t="s">
-        <v>451</v>
-      </c>
-      <c r="D169" s="226" t="s">
+      <c r="D169" s="236" t="s">
         <v>119</v>
       </c>
-      <c r="E169" s="226"/>
-      <c r="F169" s="226"/>
+      <c r="E169" s="236"/>
+      <c r="F169" s="236"/>
       <c r="G169" s="125"/>
-      <c r="H169" s="198"/>
-      <c r="I169" s="178"/>
+      <c r="H169" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I169" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J169" s="178"/>
       <c r="K169" s="107"/>
       <c r="L169" s="107"/>
@@ -12165,22 +12379,26 @@
     </row>
     <row r="170" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A170" s="129" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B170" s="145" t="s">
+        <v>432</v>
+      </c>
+      <c r="C170" s="145" t="s">
         <v>433</v>
       </c>
-      <c r="C170" s="145" t="s">
-        <v>434</v>
-      </c>
-      <c r="D170" s="219" t="s">
+      <c r="D170" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E170" s="219"/>
-      <c r="F170" s="219"/>
+      <c r="E170" s="229"/>
+      <c r="F170" s="229"/>
       <c r="G170" s="130"/>
-      <c r="H170" s="197"/>
-      <c r="I170" s="182"/>
+      <c r="H170" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I170" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J170" s="172"/>
       <c r="K170" s="163"/>
       <c r="L170" s="163"/>
@@ -12190,22 +12408,26 @@
     </row>
     <row r="171" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A171" s="114" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B171" s="145" t="s">
+        <v>434</v>
+      </c>
+      <c r="C171" s="145" t="s">
         <v>435</v>
       </c>
-      <c r="C171" s="145" t="s">
-        <v>436</v>
-      </c>
-      <c r="D171" s="219" t="s">
+      <c r="D171" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E171" s="219"/>
-      <c r="F171" s="219"/>
+      <c r="E171" s="229"/>
+      <c r="F171" s="229"/>
       <c r="G171" s="130"/>
-      <c r="H171" s="197"/>
-      <c r="I171" s="182"/>
+      <c r="H171" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I171" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J171" s="172"/>
       <c r="K171" s="163"/>
       <c r="L171" s="163"/>
@@ -12215,22 +12437,26 @@
     </row>
     <row r="172" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A172" s="114" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B172" s="145" t="s">
+        <v>436</v>
+      </c>
+      <c r="C172" s="145" t="s">
         <v>437</v>
       </c>
-      <c r="C172" s="145" t="s">
-        <v>438</v>
-      </c>
-      <c r="D172" s="219" t="s">
+      <c r="D172" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E172" s="219"/>
-      <c r="F172" s="219"/>
+      <c r="E172" s="229"/>
+      <c r="F172" s="229"/>
       <c r="G172" s="130"/>
-      <c r="H172" s="197"/>
-      <c r="I172" s="182"/>
+      <c r="H172" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I172" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J172" s="172"/>
       <c r="K172" s="163"/>
       <c r="L172" s="163"/>
@@ -12240,22 +12466,26 @@
     </row>
     <row r="173" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A173" s="114" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B173" s="145" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C173" s="145" t="s">
-        <v>453</v>
-      </c>
-      <c r="D173" s="219" t="s">
+        <v>452</v>
+      </c>
+      <c r="D173" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E173" s="219"/>
-      <c r="F173" s="219"/>
+      <c r="E173" s="229"/>
+      <c r="F173" s="229"/>
       <c r="G173" s="130"/>
-      <c r="H173" s="197"/>
-      <c r="I173" s="182"/>
+      <c r="H173" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I173" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J173" s="172"/>
       <c r="K173" s="163"/>
       <c r="L173" s="163"/>
@@ -12265,22 +12495,26 @@
     </row>
     <row r="174" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A174" s="114" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B174" s="145" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C174" s="145" t="s">
+        <v>441</v>
+      </c>
+      <c r="D174" s="229" t="s">
         <v>442</v>
       </c>
-      <c r="D174" s="219" t="s">
-        <v>443</v>
-      </c>
-      <c r="E174" s="219"/>
-      <c r="F174" s="219"/>
+      <c r="E174" s="229"/>
+      <c r="F174" s="229"/>
       <c r="G174" s="130"/>
-      <c r="H174" s="197"/>
-      <c r="I174" s="182"/>
+      <c r="H174" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I174" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J174" s="172"/>
       <c r="K174" s="163"/>
       <c r="L174" s="163"/>
@@ -12290,22 +12524,26 @@
     </row>
     <row r="175" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A175" s="114" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B175" s="145" t="s">
+        <v>439</v>
+      </c>
+      <c r="C175" s="145" t="s">
         <v>440</v>
       </c>
-      <c r="C175" s="145" t="s">
-        <v>441</v>
-      </c>
-      <c r="D175" s="219" t="s">
+      <c r="D175" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E175" s="219"/>
-      <c r="F175" s="219"/>
+      <c r="E175" s="229"/>
+      <c r="F175" s="229"/>
       <c r="G175" s="130"/>
-      <c r="H175" s="197"/>
-      <c r="I175" s="182"/>
+      <c r="H175" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I175" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J175" s="172"/>
       <c r="K175" s="163"/>
       <c r="L175" s="163"/>
@@ -12315,22 +12553,26 @@
     </row>
     <row r="176" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A176" s="114" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B176" s="145" t="s">
+        <v>444</v>
+      </c>
+      <c r="C176" s="145" t="s">
         <v>445</v>
       </c>
-      <c r="C176" s="145" t="s">
-        <v>446</v>
-      </c>
-      <c r="D176" s="219" t="s">
+      <c r="D176" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E176" s="219"/>
-      <c r="F176" s="219"/>
+      <c r="E176" s="229"/>
+      <c r="F176" s="229"/>
       <c r="G176" s="130"/>
-      <c r="H176" s="197"/>
-      <c r="I176" s="182"/>
+      <c r="H176" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I176" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J176" s="172"/>
       <c r="K176" s="163"/>
       <c r="L176" s="163"/>
@@ -12340,22 +12582,26 @@
     </row>
     <row r="177" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A177" s="114" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B177" s="145" t="s">
+        <v>446</v>
+      </c>
+      <c r="C177" s="145" t="s">
         <v>447</v>
       </c>
-      <c r="C177" s="145" t="s">
-        <v>448</v>
-      </c>
-      <c r="D177" s="219" t="s">
+      <c r="D177" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E177" s="219"/>
-      <c r="F177" s="219"/>
+      <c r="E177" s="229"/>
+      <c r="F177" s="229"/>
       <c r="G177" s="130"/>
-      <c r="H177" s="197"/>
-      <c r="I177" s="182"/>
+      <c r="H177" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I177" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J177" s="172"/>
       <c r="K177" s="163"/>
       <c r="L177" s="163"/>
@@ -12365,22 +12611,26 @@
     </row>
     <row r="178" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A178" s="114" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B178" s="145" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C178" s="145" t="s">
-        <v>452</v>
-      </c>
-      <c r="D178" s="219" t="s">
+        <v>451</v>
+      </c>
+      <c r="D178" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E178" s="219"/>
-      <c r="F178" s="219"/>
+      <c r="E178" s="229"/>
+      <c r="F178" s="229"/>
       <c r="G178" s="130"/>
-      <c r="H178" s="197"/>
-      <c r="I178" s="182"/>
+      <c r="H178" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I178" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J178" s="172"/>
       <c r="K178" s="163"/>
       <c r="L178" s="163"/>
@@ -12390,22 +12640,26 @@
     </row>
     <row r="179" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A179" s="114" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B179" s="145" t="s">
+        <v>453</v>
+      </c>
+      <c r="C179" s="145" t="s">
         <v>454</v>
       </c>
-      <c r="C179" s="145" t="s">
+      <c r="D179" s="229" t="s">
         <v>455</v>
       </c>
-      <c r="D179" s="219" t="s">
-        <v>456</v>
-      </c>
-      <c r="E179" s="219"/>
-      <c r="F179" s="219"/>
+      <c r="E179" s="229"/>
+      <c r="F179" s="229"/>
       <c r="G179" s="130"/>
-      <c r="H179" s="197"/>
-      <c r="I179" s="182"/>
+      <c r="H179" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I179" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J179" s="172"/>
       <c r="K179" s="163"/>
       <c r="L179" s="163"/>
@@ -12415,22 +12669,26 @@
     </row>
     <row r="180" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A180" s="114" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B180" s="145" t="s">
+        <v>456</v>
+      </c>
+      <c r="C180" s="145" t="s">
         <v>457</v>
       </c>
-      <c r="C180" s="145" t="s">
-        <v>458</v>
-      </c>
-      <c r="D180" s="219" t="s">
+      <c r="D180" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E180" s="219"/>
-      <c r="F180" s="219"/>
+      <c r="E180" s="229"/>
+      <c r="F180" s="229"/>
       <c r="G180" s="130"/>
-      <c r="H180" s="197"/>
-      <c r="I180" s="182"/>
+      <c r="H180" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I180" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J180" s="172"/>
       <c r="K180" s="163"/>
       <c r="L180" s="163"/>
@@ -12440,22 +12698,26 @@
     </row>
     <row r="181" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A181" s="114" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B181" s="145" t="s">
+        <v>458</v>
+      </c>
+      <c r="C181" s="145" t="s">
         <v>459</v>
       </c>
-      <c r="C181" s="145" t="s">
-        <v>460</v>
-      </c>
-      <c r="D181" s="219" t="s">
+      <c r="D181" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E181" s="219"/>
-      <c r="F181" s="219"/>
+      <c r="E181" s="229"/>
+      <c r="F181" s="229"/>
       <c r="G181" s="130"/>
-      <c r="H181" s="197"/>
-      <c r="I181" s="182"/>
+      <c r="H181" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I181" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J181" s="172"/>
       <c r="K181" s="163"/>
       <c r="L181" s="163"/>
@@ -12465,22 +12727,26 @@
     </row>
     <row r="182" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A182" s="114" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B182" s="145" t="s">
+        <v>460</v>
+      </c>
+      <c r="C182" s="145" t="s">
         <v>461</v>
       </c>
-      <c r="C182" s="145" t="s">
-        <v>462</v>
-      </c>
-      <c r="D182" s="219" t="s">
+      <c r="D182" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="E182" s="219"/>
-      <c r="F182" s="219"/>
+      <c r="E182" s="229"/>
+      <c r="F182" s="229"/>
       <c r="G182" s="130"/>
-      <c r="H182" s="197"/>
-      <c r="I182" s="182"/>
+      <c r="H182" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I182" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J182" s="172"/>
       <c r="K182" s="163"/>
       <c r="L182" s="163"/>
@@ -12490,22 +12756,26 @@
     </row>
     <row r="183" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A183" s="156" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B183" s="141" t="s">
+        <v>498</v>
+      </c>
+      <c r="C183" s="141" t="s">
         <v>499</v>
       </c>
-      <c r="C183" s="141" t="s">
-        <v>500</v>
-      </c>
-      <c r="D183" s="221" t="s">
-        <v>465</v>
-      </c>
-      <c r="E183" s="220"/>
-      <c r="F183" s="222"/>
+      <c r="D183" s="231" t="s">
+        <v>464</v>
+      </c>
+      <c r="E183" s="230"/>
+      <c r="F183" s="232"/>
       <c r="G183" s="157"/>
-      <c r="H183" s="199"/>
-      <c r="I183" s="180"/>
+      <c r="H183" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I183" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J183" s="181"/>
       <c r="K183" s="163"/>
       <c r="L183" s="163"/>
@@ -12515,22 +12785,26 @@
     </row>
     <row r="184" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A184" s="156" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B184" s="141" t="s">
+        <v>462</v>
+      </c>
+      <c r="C184" s="141" t="s">
         <v>463</v>
       </c>
-      <c r="C184" s="141" t="s">
+      <c r="D184" s="235" t="s">
         <v>464</v>
       </c>
-      <c r="D184" s="225" t="s">
-        <v>465</v>
-      </c>
-      <c r="E184" s="225"/>
-      <c r="F184" s="225"/>
+      <c r="E184" s="235"/>
+      <c r="F184" s="235"/>
       <c r="G184" s="157"/>
-      <c r="H184" s="199"/>
-      <c r="I184" s="180"/>
+      <c r="H184" s="197">
+        <v>44179</v>
+      </c>
+      <c r="I184" s="182" t="s">
+        <v>47</v>
+      </c>
       <c r="J184" s="181"/>
       <c r="K184" s="163"/>
       <c r="L184" s="163"/>
@@ -12539,18 +12813,18 @@
       <c r="O184" s="163"/>
     </row>
     <row r="185" spans="1:15" s="91" customFormat="1" ht="19.95" customHeight="1" outlineLevel="1">
-      <c r="A185" s="214" t="s">
-        <v>519</v>
-      </c>
-      <c r="B185" s="215"/>
-      <c r="C185" s="215"/>
-      <c r="D185" s="216"/>
-      <c r="E185" s="217"/>
-      <c r="F185" s="217"/>
-      <c r="G185" s="217"/>
-      <c r="H185" s="217"/>
-      <c r="I185" s="217"/>
-      <c r="J185" s="217"/>
+      <c r="A185" s="224" t="s">
+        <v>517</v>
+      </c>
+      <c r="B185" s="225"/>
+      <c r="C185" s="225"/>
+      <c r="D185" s="226"/>
+      <c r="E185" s="227"/>
+      <c r="F185" s="227"/>
+      <c r="G185" s="227"/>
+      <c r="H185" s="227"/>
+      <c r="I185" s="227"/>
+      <c r="J185" s="227"/>
       <c r="K185" s="163"/>
       <c r="L185" s="163"/>
       <c r="M185" s="163"/>
@@ -12559,7 +12833,7 @@
     </row>
     <row r="186" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A186" s="112" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B186" s="170" t="s">
         <v>101</v>
@@ -12567,11 +12841,11 @@
       <c r="C186" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="D186" s="213" t="s">
+      <c r="D186" s="223" t="s">
         <v>103</v>
       </c>
-      <c r="E186" s="218"/>
-      <c r="F186" s="218"/>
+      <c r="E186" s="228"/>
+      <c r="F186" s="228"/>
       <c r="G186" s="192"/>
       <c r="H186" s="196">
         <v>44178</v>
@@ -12588,19 +12862,19 @@
     </row>
     <row r="187" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A187" s="112" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B187" s="169" t="s">
         <v>110</v>
       </c>
       <c r="C187" s="169" t="s">
+        <v>508</v>
+      </c>
+      <c r="D187" s="223" t="s">
         <v>509</v>
       </c>
-      <c r="D187" s="213" t="s">
-        <v>510</v>
-      </c>
-      <c r="E187" s="218"/>
-      <c r="F187" s="218"/>
+      <c r="E187" s="228"/>
+      <c r="F187" s="228"/>
       <c r="G187" s="130"/>
       <c r="H187" s="197">
         <v>44178</v>
@@ -12617,28 +12891,28 @@
     </row>
     <row r="188" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A188" s="112" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B188" s="169" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C188" s="169" t="s">
+        <v>528</v>
+      </c>
+      <c r="D188" s="229" t="s">
         <v>530</v>
       </c>
-      <c r="D188" s="219" t="s">
-        <v>532</v>
-      </c>
-      <c r="E188" s="219"/>
-      <c r="F188" s="219"/>
+      <c r="E188" s="229"/>
+      <c r="F188" s="229"/>
       <c r="G188" s="130"/>
       <c r="H188" s="197">
         <v>44178</v>
       </c>
-      <c r="I188" s="275" t="s">
+      <c r="I188" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="J188" s="204" t="s">
-        <v>540</v>
+      <c r="J188" s="214" t="s">
+        <v>537</v>
       </c>
       <c r="K188" s="163"/>
       <c r="L188" s="163"/>
@@ -12648,19 +12922,19 @@
     </row>
     <row r="189" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A189" s="112" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B189" s="169" t="s">
         <v>105</v>
       </c>
       <c r="C189" s="169" t="s">
-        <v>511</v>
-      </c>
-      <c r="D189" s="213" t="s">
+        <v>510</v>
+      </c>
+      <c r="D189" s="223" t="s">
         <v>104</v>
       </c>
-      <c r="E189" s="218"/>
-      <c r="F189" s="218"/>
+      <c r="E189" s="228"/>
+      <c r="F189" s="228"/>
       <c r="G189" s="130"/>
       <c r="H189" s="197">
         <v>44178</v>
@@ -12677,19 +12951,19 @@
     </row>
     <row r="190" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A190" s="112" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B190" s="169" t="s">
         <v>106</v>
       </c>
       <c r="C190" s="169" t="s">
-        <v>512</v>
-      </c>
-      <c r="D190" s="213" t="s">
+        <v>511</v>
+      </c>
+      <c r="D190" s="223" t="s">
         <v>107</v>
       </c>
-      <c r="E190" s="213"/>
-      <c r="F190" s="213"/>
+      <c r="E190" s="223"/>
+      <c r="F190" s="223"/>
       <c r="G190" s="130"/>
       <c r="H190" s="197">
         <v>44178</v>
@@ -12706,28 +12980,28 @@
     </row>
     <row r="191" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A191" s="112" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B191" s="169" t="s">
         <v>108</v>
       </c>
       <c r="C191" s="169" t="s">
-        <v>513</v>
-      </c>
-      <c r="D191" s="213" t="s">
+        <v>512</v>
+      </c>
+      <c r="D191" s="223" t="s">
         <v>109</v>
       </c>
-      <c r="E191" s="213"/>
-      <c r="F191" s="213"/>
+      <c r="E191" s="223"/>
+      <c r="F191" s="223"/>
       <c r="G191" s="130"/>
       <c r="H191" s="197">
         <v>44178</v>
       </c>
-      <c r="I191" s="275" t="s">
+      <c r="I191" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="J191" s="204" t="s">
-        <v>540</v>
+      <c r="J191" s="214" t="s">
+        <v>537</v>
       </c>
       <c r="K191" s="163"/>
       <c r="L191" s="163"/>
@@ -12737,19 +13011,19 @@
     </row>
     <row r="192" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A192" s="112" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B192" s="169" t="s">
         <v>111</v>
       </c>
       <c r="C192" s="169" t="s">
+        <v>513</v>
+      </c>
+      <c r="D192" s="223" t="s">
         <v>514</v>
       </c>
-      <c r="D192" s="213" t="s">
-        <v>515</v>
-      </c>
-      <c r="E192" s="213"/>
-      <c r="F192" s="213"/>
+      <c r="E192" s="223"/>
+      <c r="F192" s="223"/>
       <c r="G192" s="130"/>
       <c r="H192" s="197">
         <v>44178</v>
@@ -12766,28 +13040,28 @@
     </row>
     <row r="193" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A193" s="112" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B193" s="169" t="s">
         <v>112</v>
       </c>
       <c r="C193" s="169" t="s">
-        <v>516</v>
-      </c>
-      <c r="D193" s="213" t="s">
+        <v>515</v>
+      </c>
+      <c r="D193" s="223" t="s">
         <v>133</v>
       </c>
-      <c r="E193" s="213"/>
-      <c r="F193" s="213"/>
+      <c r="E193" s="223"/>
+      <c r="F193" s="223"/>
       <c r="G193" s="130"/>
       <c r="H193" s="197">
         <v>44178</v>
       </c>
-      <c r="I193" s="275" t="s">
+      <c r="I193" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="J193" s="204" t="s">
-        <v>540</v>
+      <c r="J193" s="214" t="s">
+        <v>537</v>
       </c>
       <c r="K193" s="163"/>
       <c r="L193" s="163"/>
@@ -12797,19 +13071,19 @@
     </row>
     <row r="194" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A194" s="112" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B194" s="169" t="s">
         <v>113</v>
       </c>
       <c r="C194" s="169" t="s">
-        <v>531</v>
-      </c>
-      <c r="D194" s="213" t="s">
+        <v>529</v>
+      </c>
+      <c r="D194" s="223" t="s">
         <v>114</v>
       </c>
-      <c r="E194" s="213"/>
-      <c r="F194" s="213"/>
+      <c r="E194" s="223"/>
+      <c r="F194" s="223"/>
       <c r="G194" s="130"/>
       <c r="H194" s="197">
         <v>44178</v>
@@ -12826,7 +13100,7 @@
     </row>
     <row r="195" spans="1:15" s="91" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A195" s="112" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B195" s="169" t="s">
         <v>115</v>
@@ -12834,11 +13108,11 @@
       <c r="C195" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="D195" s="213" t="s">
+      <c r="D195" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="E195" s="213"/>
-      <c r="F195" s="213"/>
+      <c r="E195" s="223"/>
+      <c r="F195" s="223"/>
       <c r="G195" s="130"/>
       <c r="H195" s="197">
         <v>44178</v>
@@ -12912,24 +13186,49 @@
     <row r="233" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="204">
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D82:F82"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D117:F117"/>
     <mergeCell ref="D64:F64"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
     <mergeCell ref="D83:F83"/>
     <mergeCell ref="D84:F84"/>
     <mergeCell ref="D85:F85"/>
@@ -12941,7 +13240,6 @@
     <mergeCell ref="D74:F74"/>
     <mergeCell ref="D75:F75"/>
     <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D100:F100"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="D172:F172"/>
@@ -12979,6 +13277,15 @@
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="I9:I10"/>
@@ -12997,43 +13304,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
     <mergeCell ref="D143:F143"/>
     <mergeCell ref="D144:F144"/>
     <mergeCell ref="D105:F105"/>
@@ -13070,6 +13340,10 @@
     <mergeCell ref="D104:F104"/>
     <mergeCell ref="D101:F101"/>
     <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D100:F100"/>
     <mergeCell ref="D184:F184"/>
     <mergeCell ref="D177:F177"/>
     <mergeCell ref="D178:F178"/>
@@ -13228,11 +13502,11 @@
       </c>
       <c r="D8" s="76">
         <f>'Export all carrier choices'!B6</f>
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="E8" s="75">
         <f>'Export all carrier choices'!B7</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F8" s="75">
         <f>'Export all carrier choices'!D6</f>
@@ -13260,11 +13534,11 @@
       </c>
       <c r="D10" s="61">
         <f>SUM(D6:D9)</f>
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="E10" s="61">
         <f>SUM(E6:E9)</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F10" s="61">
         <f>SUM(F6:F9)</f>
@@ -13293,7 +13567,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="24">
         <f>(D10+E10)*100/G10</f>
-        <v>70.930232558139537</v>
+        <v>100</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>31</v>
@@ -13309,7 +13583,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="24">
         <f>D10*100/G10</f>
-        <v>45.348837209302324</v>
+        <v>70.348837209302332</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>31</v>
